--- a/src/test/input/used/DDA/Deposit scope for_FSD_DDA_20250221.xlsx
+++ b/src/test/input/used/DDA/Deposit scope for_FSD_DDA_20250221.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE83CC12-0AF4-4743-B56B-004FC4D9ED8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58205E5C-01A1-4853-8C62-FE13DEAD5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="2340" windowWidth="29020" windowHeight="15700" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="407">
   <si>
     <t>Module</t>
   </si>
@@ -1260,9 +1260,6 @@
     <t>GET /v2 /account/{account-type}/{account-ref}</t>
   </si>
   <si>
-    <t>PUT /v2 /account/{account-type}/{account-ref}</t>
-  </si>
-  <si>
     <t>PATCH /v2/broker-linakge/{broker-linkage-reference}/workflow</t>
   </si>
   <si>
@@ -1480,6 +1477,18 @@
     <t>Branch Number</t>
   </si>
   <si>
+    <t>GET /v2/account/{account-type}/{account-ref}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /v2 /account/{account-type}/{account-ref}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT /v2/account/{account-type}/{account-ref}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>POST /v2/broker-linakge</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1489,6 +1498,10 @@
   </si>
   <si>
     <t>GET /v2/broker-linakge/{broker-linkage-reference}/{event-leg-id}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1496,7 +1509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1636,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1846,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2022,6 +2042,17 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3442,9 +3473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75299A52-B02C-4760-8957-A84410B5A1E8}">
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J291" sqref="J291"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3461,7 +3492,7 @@
     <col min="10" max="10" width="18.296875" style="45" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.296875" style="45" customWidth="1"/>
     <col min="12" max="12" width="22.69921875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="34" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="101.796875" style="45" customWidth="1"/>
     <col min="14" max="14" width="46.09765625" style="45" customWidth="1"/>
     <col min="15" max="15" width="44.296875" style="45" customWidth="1"/>
     <col min="16" max="16384" width="9.09765625" style="45"/>
@@ -3514,7 +3545,7 @@
         <v>74</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3840,10 +3871,10 @@
         <v>135</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H8" s="65" t="s">
         <v>131</v>
@@ -4046,10 +4077,10 @@
         <v>135</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H12" s="65" t="s">
         <v>131</v>
@@ -4301,10 +4332,10 @@
         <v>135</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H17" s="65" t="s">
         <v>157</v>
@@ -4352,10 +4383,10 @@
         <v>135</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H18" s="65" t="s">
         <v>157</v>
@@ -4845,7 +4876,7 @@
       </c>
       <c r="L27" s="65"/>
       <c r="M27" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N27" s="45" t="str">
         <f t="shared" si="1"/>
@@ -4896,7 +4927,7 @@
       </c>
       <c r="L28" s="65"/>
       <c r="M28" s="45" t="s">
-        <v>331</v>
+        <v>401</v>
       </c>
       <c r="N28" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5131,10 +5162,10 @@
         <v>135</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H33" s="65" t="s">
         <v>131</v>
@@ -5337,10 +5368,10 @@
         <v>135</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H37" s="65" t="s">
         <v>131</v>
@@ -5408,7 +5439,7 @@
       </c>
       <c r="L38" s="65"/>
       <c r="M38" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N38" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5459,7 +5490,7 @@
       </c>
       <c r="L39" s="65"/>
       <c r="M39" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N39" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5510,7 +5541,7 @@
       </c>
       <c r="L40" s="65"/>
       <c r="M40" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N40" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5561,7 +5592,7 @@
       </c>
       <c r="L41" s="65"/>
       <c r="M41" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N41" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5592,10 +5623,10 @@
         <v>135</v>
       </c>
       <c r="F42" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H42" s="65" t="s">
         <v>157</v>
@@ -5612,7 +5643,7 @@
       </c>
       <c r="L42" s="65"/>
       <c r="M42" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N42" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5643,10 +5674,10 @@
         <v>135</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G43" s="65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H43" s="65" t="s">
         <v>157</v>
@@ -5663,7 +5694,7 @@
       </c>
       <c r="L43" s="65"/>
       <c r="M43" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N43" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5716,7 +5747,7 @@
         <v>162</v>
       </c>
       <c r="M44" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N44" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5767,7 +5798,7 @@
       </c>
       <c r="L45" s="65"/>
       <c r="M45" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N45" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5820,7 +5851,7 @@
         <v>163</v>
       </c>
       <c r="M46" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N46" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5873,7 +5904,7 @@
         <v>164</v>
       </c>
       <c r="M47" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N47" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5926,7 +5957,7 @@
         <v>165</v>
       </c>
       <c r="M48" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N48" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5979,7 +6010,7 @@
         <v>166</v>
       </c>
       <c r="M49" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N49" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6032,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="M50" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N50" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6085,7 +6116,7 @@
         <v>80</v>
       </c>
       <c r="M51" s="45" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="N51" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6136,7 +6167,7 @@
       </c>
       <c r="L52" s="65"/>
       <c r="M52" s="45" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="N52" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6187,7 +6218,7 @@
       </c>
       <c r="L53" s="65"/>
       <c r="M53" s="45" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="N53" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6238,7 +6269,7 @@
       </c>
       <c r="L54" s="65"/>
       <c r="M54" s="45" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="N54" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6289,7 +6320,7 @@
       </c>
       <c r="L55" s="65"/>
       <c r="M55" s="45" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="N55" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6340,7 +6371,7 @@
       </c>
       <c r="L56" s="65"/>
       <c r="M56" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N56" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6391,7 +6422,7 @@
       </c>
       <c r="L57" s="65"/>
       <c r="M57" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N57" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6422,10 +6453,10 @@
         <v>135</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G58" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H58" s="65" t="s">
         <v>131</v>
@@ -6442,7 +6473,7 @@
       </c>
       <c r="L58" s="65"/>
       <c r="M58" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N58" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6493,7 +6524,7 @@
       </c>
       <c r="L59" s="65"/>
       <c r="M59" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N59" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6546,7 +6577,7 @@
         <v>161</v>
       </c>
       <c r="M60" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N60" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6597,7 +6628,7 @@
       </c>
       <c r="L61" s="65"/>
       <c r="M61" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N61" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6628,10 +6659,10 @@
         <v>135</v>
       </c>
       <c r="F62" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H62" s="65" t="s">
         <v>131</v>
@@ -6648,7 +6679,7 @@
       </c>
       <c r="L62" s="65"/>
       <c r="M62" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N62" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6699,7 +6730,7 @@
       </c>
       <c r="L63" s="65"/>
       <c r="M63" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N63" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6750,7 +6781,7 @@
       </c>
       <c r="L64" s="65"/>
       <c r="M64" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N64" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6801,7 +6832,7 @@
       </c>
       <c r="L65" s="65"/>
       <c r="M65" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N65" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6852,7 +6883,7 @@
       </c>
       <c r="L66" s="65"/>
       <c r="M66" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N66" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6883,10 +6914,10 @@
         <v>135</v>
       </c>
       <c r="F67" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G67" s="65" t="s">
         <v>379</v>
-      </c>
-      <c r="G67" s="65" t="s">
-        <v>380</v>
       </c>
       <c r="H67" s="65" t="s">
         <v>157</v>
@@ -6903,7 +6934,7 @@
       </c>
       <c r="L67" s="65"/>
       <c r="M67" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N67" s="45" t="str">
         <f t="shared" ref="N67:N130" si="7">C67</f>
@@ -6934,10 +6965,10 @@
         <v>135</v>
       </c>
       <c r="F68" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="G68" s="65" t="s">
         <v>381</v>
-      </c>
-      <c r="G68" s="65" t="s">
-        <v>382</v>
       </c>
       <c r="H68" s="65" t="s">
         <v>157</v>
@@ -6954,7 +6985,7 @@
       </c>
       <c r="L68" s="65"/>
       <c r="M68" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N68" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7007,7 +7038,7 @@
         <v>162</v>
       </c>
       <c r="M69" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N69" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7058,7 +7089,7 @@
       </c>
       <c r="L70" s="65"/>
       <c r="M70" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N70" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7111,7 +7142,7 @@
         <v>163</v>
       </c>
       <c r="M71" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N71" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7164,7 +7195,7 @@
         <v>164</v>
       </c>
       <c r="M72" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N72" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7217,7 +7248,7 @@
         <v>165</v>
       </c>
       <c r="M73" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N73" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7270,7 +7301,7 @@
         <v>166</v>
       </c>
       <c r="M74" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N74" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7323,7 +7354,7 @@
         <v>80</v>
       </c>
       <c r="M75" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N75" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7376,7 +7407,7 @@
         <v>80</v>
       </c>
       <c r="M76" s="45" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="N76" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7427,7 +7458,7 @@
       </c>
       <c r="L77" s="65"/>
       <c r="M77" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N77" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7478,7 +7509,7 @@
       </c>
       <c r="L78" s="65"/>
       <c r="M78" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N78" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7529,7 +7560,7 @@
       </c>
       <c r="L79" s="65"/>
       <c r="M79" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N79" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7563,7 +7594,7 @@
         <v>176</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H80" s="65" t="s">
         <v>182</v>
@@ -7580,7 +7611,7 @@
       </c>
       <c r="L80" s="65"/>
       <c r="M80" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N80" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7611,10 +7642,10 @@
         <v>173</v>
       </c>
       <c r="F81" s="65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H81" s="65" t="s">
         <v>184</v>
@@ -7633,7 +7664,7 @@
         <v>186</v>
       </c>
       <c r="M81" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N81" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7658,16 +7689,16 @@
         <v>174</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E82" s="45" t="s">
         <v>173</v>
       </c>
       <c r="F82" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G82" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H82" s="65" t="s">
         <v>156</v>
@@ -7684,7 +7715,7 @@
       </c>
       <c r="L82" s="65"/>
       <c r="M82" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N82" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7715,10 +7746,10 @@
         <v>173</v>
       </c>
       <c r="F83" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G83" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H83" s="65" t="s">
         <v>156</v>
@@ -7735,7 +7766,7 @@
       </c>
       <c r="L83" s="65"/>
       <c r="M83" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N83" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7786,7 +7817,7 @@
       </c>
       <c r="L84" s="65"/>
       <c r="M84" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N84" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7817,10 +7848,10 @@
         <v>173</v>
       </c>
       <c r="F85" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="G85" s="65" t="s">
         <v>377</v>
-      </c>
-      <c r="G85" s="65" t="s">
-        <v>378</v>
       </c>
       <c r="H85" s="65" t="s">
         <v>156</v>
@@ -7837,7 +7868,7 @@
       </c>
       <c r="L85" s="65"/>
       <c r="M85" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N85" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7888,7 +7919,7 @@
       </c>
       <c r="L86" s="65"/>
       <c r="M86" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N86" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7939,7 +7970,7 @@
       </c>
       <c r="L87" s="65"/>
       <c r="M87" s="45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N87" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7964,10 +7995,10 @@
         <v>188</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F88" s="65" t="s">
         <v>189</v>
@@ -7989,7 +8020,7 @@
         <v>twct-approval-letter-number</v>
       </c>
       <c r="M88" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N88" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8014,10 +8045,10 @@
         <v>188</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F89" s="65" t="s">
         <v>190</v>
@@ -8039,7 +8070,7 @@
         <v>twct-applicable-tax-rate</v>
       </c>
       <c r="M89" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N89" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8064,10 +8095,10 @@
         <v>188</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F90" s="65" t="s">
         <v>191</v>
@@ -8089,7 +8120,7 @@
         <v>twct-approved-amount</v>
       </c>
       <c r="M90" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N90" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8114,10 +8145,10 @@
         <v>188</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F91" s="65" t="s">
         <v>192</v>
@@ -8139,7 +8170,7 @@
         <v>twct-total-amount-of-cumulative-remittance</v>
       </c>
       <c r="M91" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N91" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8164,16 +8195,16 @@
         <v>188</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F92" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G92" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H92" s="65" t="s">
         <v>156</v>
@@ -8189,7 +8220,7 @@
         <v>twct-taxation-amount-in-account-currency</v>
       </c>
       <c r="M92" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N92" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8214,16 +8245,16 @@
         <v>188</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F93" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G93" s="65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H93" s="65" t="s">
         <v>156</v>
@@ -8239,7 +8270,7 @@
         <v>twct-taxation-amount-in-twd</v>
       </c>
       <c r="M93" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N93" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8264,10 +8295,10 @@
         <v>188</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F94" s="65" t="s">
         <v>193</v>
@@ -8289,7 +8320,7 @@
         <v>twct-date-of-approval</v>
       </c>
       <c r="M94" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N94" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8314,10 +8345,10 @@
         <v>188</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F95" s="65" t="s">
         <v>194</v>
@@ -8339,7 +8370,7 @@
         <v>twct-deadline-for-approval-remittance</v>
       </c>
       <c r="M95" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N95" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8364,10 +8395,10 @@
         <v>188</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F96" s="65" t="s">
         <v>195</v>
@@ -8389,7 +8420,7 @@
         <v>twct-date-of-last-remittance</v>
       </c>
       <c r="M96" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N96" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8414,10 +8445,10 @@
         <v>198</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F97" s="65" t="s">
         <v>189</v>
@@ -8439,7 +8470,7 @@
         <v>twct-approval-letter-number</v>
       </c>
       <c r="M97" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N97" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8464,10 +8495,10 @@
         <v>198</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F98" s="65" t="s">
         <v>190</v>
@@ -8489,7 +8520,7 @@
         <v>twct-applicable-tax-rate</v>
       </c>
       <c r="M98" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N98" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8514,10 +8545,10 @@
         <v>198</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F99" s="65" t="s">
         <v>191</v>
@@ -8539,7 +8570,7 @@
         <v>twct-approved-amount</v>
       </c>
       <c r="M99" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N99" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8564,10 +8595,10 @@
         <v>198</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F100" s="65" t="s">
         <v>192</v>
@@ -8589,7 +8620,7 @@
         <v>twct-total-amount-of-cumulative-remittance</v>
       </c>
       <c r="M100" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N100" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8614,16 +8645,16 @@
         <v>198</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F101" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G101" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H101" s="65" t="s">
         <v>156</v>
@@ -8639,7 +8670,7 @@
         <v>twct-taxation-amount-in-account-currency</v>
       </c>
       <c r="M101" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N101" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8664,16 +8695,16 @@
         <v>198</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F102" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G102" s="65" t="s">
         <v>388</v>
-      </c>
-      <c r="G102" s="65" t="s">
-        <v>389</v>
       </c>
       <c r="H102" s="65" t="s">
         <v>156</v>
@@ -8689,7 +8720,7 @@
         <v>twct-taxation-amount-in-twd</v>
       </c>
       <c r="M102" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N102" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8714,10 +8745,10 @@
         <v>198</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F103" s="65" t="s">
         <v>193</v>
@@ -8739,7 +8770,7 @@
         <v>twct-date-of-approval</v>
       </c>
       <c r="M103" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N103" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8764,10 +8795,10 @@
         <v>198</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F104" s="65" t="s">
         <v>194</v>
@@ -8789,7 +8820,7 @@
         <v>twct-deadline-for-approval-remittance</v>
       </c>
       <c r="M104" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N104" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8814,10 +8845,10 @@
         <v>198</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F105" s="65" t="s">
         <v>195</v>
@@ -8839,7 +8870,7 @@
         <v>twct-date-of-last-remittance</v>
       </c>
       <c r="M105" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N105" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8853,453 +8884,453 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="45" t="s">
+    <row r="106" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C106" s="45" t="s">
+      <c r="C106" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E106" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F106" s="65" t="s">
+      <c r="D106" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E106" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F106" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="G106" s="65" t="s">
+      <c r="G106" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="H106" s="65" t="s">
+      <c r="H106" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="I106" s="65" t="s">
+      <c r="I106" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J106" s="45" t="s">
+      <c r="J106" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="K106" s="44" t="str">
+      <c r="K106" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-approval-letter-number</v>
       </c>
-      <c r="M106" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N106" s="45" t="str">
+      <c r="M106" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N106" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O106" s="45" t="str">
+      <c r="O106" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P106" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" s="45" t="s">
+      <c r="P106" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="45" t="s">
+      <c r="C107" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D107" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E107" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F107" s="65" t="s">
+      <c r="D107" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E107" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F107" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="G107" s="65" t="s">
+      <c r="G107" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="H107" s="65" t="s">
+      <c r="H107" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="I107" s="65" t="s">
+      <c r="I107" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J107" s="45" t="s">
+      <c r="J107" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K107" s="44" t="str">
+      <c r="K107" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-applicable-tax-rate</v>
       </c>
-      <c r="M107" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N107" s="45" t="str">
+      <c r="M107" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N107" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O107" s="45" t="str">
+      <c r="O107" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P107" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B108" s="45" t="s">
+      <c r="P107" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="45" t="s">
+      <c r="C108" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D108" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E108" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F108" s="65" t="s">
+      <c r="D108" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E108" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F108" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="G108" s="65" t="s">
+      <c r="G108" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="H108" s="65" t="s">
+      <c r="H108" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="I108" s="65" t="s">
+      <c r="I108" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J108" s="45" t="s">
+      <c r="J108" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K108" s="44" t="str">
+      <c r="K108" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-approved-amount</v>
       </c>
-      <c r="M108" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N108" s="45" t="str">
+      <c r="M108" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N108" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O108" s="45" t="str">
+      <c r="O108" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P108" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="45" t="s">
+      <c r="P108" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="45" t="s">
+      <c r="C109" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D109" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E109" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F109" s="65" t="s">
+      <c r="D109" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F109" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="G109" s="65" t="s">
+      <c r="G109" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="H109" s="65" t="s">
+      <c r="H109" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="I109" s="65" t="s">
+      <c r="I109" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="J109" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K109" s="44" t="str">
+      <c r="K109" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-total-amount-of-cumulative-remittance</v>
       </c>
-      <c r="M109" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N109" s="45" t="str">
+      <c r="M109" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N109" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O109" s="45" t="str">
+      <c r="O109" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P109" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A110" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B110" s="45" t="s">
+      <c r="P109" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="45" t="s">
+      <c r="C110" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D110" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E110" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F110" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="G110" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="H110" s="65" t="s">
+      <c r="D110" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E110" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F110" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="G110" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="H110" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="I110" s="65" t="s">
+      <c r="I110" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J110" s="45" t="s">
+      <c r="J110" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K110" s="44" t="str">
+      <c r="K110" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-taxation-amount-in-account-currency</v>
       </c>
-      <c r="M110" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N110" s="45" t="str">
+      <c r="M110" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N110" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O110" s="45" t="str">
+      <c r="O110" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P110" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A111" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B111" s="45" t="s">
+      <c r="P110" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="45" t="s">
+      <c r="C111" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D111" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E111" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F111" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="G111" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="H111" s="65" t="s">
+      <c r="D111" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E111" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="G111" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="H111" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="I111" s="65" t="s">
+      <c r="I111" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J111" s="45" t="s">
+      <c r="J111" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K111" s="44" t="str">
+      <c r="K111" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-taxation-amount-in-twd</v>
       </c>
-      <c r="M111" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N111" s="45" t="str">
+      <c r="M111" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N111" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O111" s="45" t="str">
+      <c r="O111" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P111" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" s="45" t="s">
+      <c r="P111" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C112" s="45" t="s">
+      <c r="C112" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D112" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E112" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F112" s="65" t="s">
+      <c r="D112" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E112" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="G112" s="65" t="s">
+      <c r="G112" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="H112" s="65" t="s">
+      <c r="H112" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I112" s="65" t="s">
+      <c r="I112" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J112" s="45" t="s">
+      <c r="J112" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K112" s="44" t="str">
+      <c r="K112" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-date-of-approval</v>
       </c>
-      <c r="M112" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N112" s="45" t="str">
+      <c r="M112" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N112" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O112" s="45" t="str">
+      <c r="O112" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P112" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B113" s="45" t="s">
+      <c r="P112" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C113" s="45" t="s">
+      <c r="C113" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D113" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E113" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F113" s="65" t="s">
+      <c r="D113" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E113" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F113" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="G113" s="65" t="s">
+      <c r="G113" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="H113" s="65" t="s">
+      <c r="H113" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I113" s="65" t="s">
+      <c r="I113" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J113" s="45" t="s">
+      <c r="J113" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K113" s="44" t="str">
+      <c r="K113" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-deadline-for-approval-remittance</v>
       </c>
-      <c r="M113" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N113" s="45" t="str">
+      <c r="M113" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N113" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O113" s="45" t="str">
+      <c r="O113" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P113" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B114" s="45" t="s">
+      <c r="P113" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="45" t="s">
+      <c r="C114" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="D114" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="E114" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F114" s="65" t="s">
+      <c r="D114" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="E114" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F114" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="G114" s="65" t="s">
+      <c r="G114" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="H114" s="65" t="s">
+      <c r="H114" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I114" s="65" t="s">
+      <c r="I114" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J114" s="45" t="s">
+      <c r="J114" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K114" s="44" t="str">
+      <c r="K114" s="70" t="str">
         <f t="shared" si="10"/>
         <v>twct-date-of-last-remittance</v>
       </c>
-      <c r="M114" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N114" s="45" t="str">
+      <c r="M114" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="N114" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="O114" s="45" t="str">
+      <c r="O114" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Official Document Details</v>
       </c>
-      <c r="P114" s="45" t="b">
+      <c r="P114" s="69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9314,16 +9345,16 @@
         <v>256</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G115" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H115" s="65" t="s">
         <v>204</v>
@@ -9342,7 +9373,7 @@
         <v>219</v>
       </c>
       <c r="M115" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N115" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9373,10 +9404,10 @@
         <v>202</v>
       </c>
       <c r="F116" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G116" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H116" s="65" t="s">
         <v>203</v>
@@ -9393,7 +9424,7 @@
       </c>
       <c r="L116" s="65"/>
       <c r="M116" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N116" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9424,10 +9455,10 @@
         <v>202</v>
       </c>
       <c r="F117" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G117" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H117" s="65" t="s">
         <v>130</v>
@@ -9444,7 +9475,7 @@
       </c>
       <c r="L117" s="65"/>
       <c r="M117" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N117" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9495,7 +9526,7 @@
       </c>
       <c r="L118" s="65"/>
       <c r="M118" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N118" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9548,7 +9579,7 @@
         <v>218</v>
       </c>
       <c r="M119" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N119" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9601,7 +9632,7 @@
         <v>218</v>
       </c>
       <c r="M120" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N120" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9654,7 +9685,7 @@
         <v>219</v>
       </c>
       <c r="M121" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N121" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9685,10 +9716,10 @@
         <v>202</v>
       </c>
       <c r="F122" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G122" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H122" s="65" t="s">
         <v>203</v>
@@ -9705,7 +9736,7 @@
       </c>
       <c r="L122" s="65"/>
       <c r="M122" s="45" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N122" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9736,10 +9767,10 @@
         <v>202</v>
       </c>
       <c r="F123" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G123" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H123" s="65" t="s">
         <v>130</v>
@@ -9756,7 +9787,7 @@
       </c>
       <c r="L123" s="65"/>
       <c r="M123" s="45" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N123" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9807,7 +9838,7 @@
       </c>
       <c r="L124" s="65"/>
       <c r="M124" s="45" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N124" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9860,7 +9891,7 @@
         <v>218</v>
       </c>
       <c r="M125" s="45" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N125" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9913,7 +9944,7 @@
         <v>218</v>
       </c>
       <c r="M126" s="45" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N126" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9966,7 +9997,7 @@
         <v>219</v>
       </c>
       <c r="M127" s="45" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N127" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9980,315 +10011,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A128" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="45" t="s">
+    <row r="128" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="45" t="s">
+      <c r="C128" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E128" s="45" t="s">
+      <c r="E128" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F128" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="G128" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="H128" s="65" t="s">
+      <c r="F128" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="G128" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="H128" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="I128" s="65" t="s">
+      <c r="I128" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J128" s="45" t="s">
+      <c r="J128" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="K128" s="44" t="str">
+      <c r="K128" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-account-reference</v>
       </c>
-      <c r="L128" s="65"/>
-      <c r="M128" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="N128" s="45" t="str">
+      <c r="L128" s="68"/>
+      <c r="M128" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="N128" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="O128" s="45" t="str">
+      <c r="O128" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="P128" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A129" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="45" t="s">
+      <c r="P128" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="45" t="s">
+      <c r="C129" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D129" s="45" t="s">
+      <c r="D129" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="45" t="s">
+      <c r="E129" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F129" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="G129" s="65" t="s">
-        <v>398</v>
-      </c>
-      <c r="H129" s="65" t="s">
+      <c r="F129" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="G129" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="H129" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I129" s="65" t="s">
+      <c r="I129" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J129" s="45" t="s">
+      <c r="J129" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K129" s="44" t="str">
+      <c r="K129" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-stock-house-and-branch</v>
       </c>
-      <c r="L129" s="65"/>
-      <c r="M129" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="N129" s="45" t="str">
+      <c r="L129" s="68"/>
+      <c r="M129" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="N129" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="O129" s="45" t="str">
+      <c r="O129" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="P129" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A130" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130" s="45" t="s">
+      <c r="P129" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="C130" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D130" s="45" t="s">
+      <c r="D130" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E130" s="45" t="s">
+      <c r="E130" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F130" s="65" t="s">
+      <c r="F130" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="G130" s="65" t="s">
+      <c r="G130" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="H130" s="65" t="s">
+      <c r="H130" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="I130" s="65" t="s">
+      <c r="I130" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J130" s="45" t="s">
+      <c r="J130" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K130" s="44" t="str">
+      <c r="K130" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-broker-id</v>
       </c>
-      <c r="L130" s="65"/>
-      <c r="M130" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="N130" s="45" t="str">
+      <c r="L130" s="68"/>
+      <c r="M130" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="N130" s="69" t="str">
         <f t="shared" si="7"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="O130" s="45" t="str">
+      <c r="O130" s="69" t="str">
         <f t="shared" si="8"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="P130" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="45" t="s">
+      <c r="P130" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C131" s="45" t="s">
+      <c r="C131" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D131" s="45" t="s">
+      <c r="D131" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E131" s="45" t="s">
+      <c r="E131" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F131" s="65" t="s">
+      <c r="F131" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="G131" s="65" t="s">
+      <c r="G131" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="H131" s="65" t="s">
+      <c r="H131" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I131" s="65" t="s">
+      <c r="I131" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J131" s="45" t="s">
+      <c r="J131" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K131" s="44" t="str">
+      <c r="K131" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-broker-access-flag</v>
       </c>
-      <c r="L131" s="65" t="s">
+      <c r="L131" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="M131" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="N131" s="45" t="str">
+      <c r="M131" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="N131" s="69" t="str">
         <f t="shared" ref="N131:N194" si="12">C131</f>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="O131" s="45" t="str">
+      <c r="O131" s="69" t="str">
         <f t="shared" ref="O131:O194" si="13">C131</f>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="P131" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A132" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" s="45" t="s">
+      <c r="P131" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="45" t="s">
+      <c r="C132" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D132" s="45" t="s">
+      <c r="D132" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E132" s="45" t="s">
+      <c r="E132" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F132" s="65" t="s">
+      <c r="F132" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="G132" s="65" t="s">
+      <c r="G132" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="H132" s="65" t="s">
+      <c r="H132" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I132" s="65" t="s">
+      <c r="I132" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J132" s="45" t="s">
+      <c r="J132" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K132" s="44" t="str">
+      <c r="K132" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-broker-application-access-flag</v>
       </c>
-      <c r="L132" s="65" t="s">
+      <c r="L132" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="M132" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="N132" s="45" t="str">
+      <c r="M132" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="N132" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="O132" s="45" t="str">
+      <c r="O132" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="P132" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A133" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" s="45" t="s">
+      <c r="P132" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C133" s="45" t="s">
+      <c r="C133" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="D133" s="45" t="s">
+      <c r="D133" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E133" s="45" t="s">
+      <c r="E133" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F133" s="65" t="s">
+      <c r="F133" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="G133" s="65" t="s">
+      <c r="G133" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H133" s="65" t="s">
+      <c r="H133" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="I133" s="65" t="s">
+      <c r="I133" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J133" s="45" t="s">
+      <c r="J133" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K133" s="44" t="str">
+      <c r="K133" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-link-status</v>
       </c>
-      <c r="L133" s="65" t="s">
+      <c r="L133" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="M133" s="45" t="s">
-        <v>403</v>
-      </c>
-      <c r="N133" s="45" t="str">
+      <c r="M133" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="N133" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="O133" s="45" t="str">
+      <c r="O133" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire Broker Linakge</v>
       </c>
-      <c r="P133" s="45" t="b">
+      <c r="P133" s="69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10331,7 +10362,7 @@
         <v>219</v>
       </c>
       <c r="M134" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N134" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10373,7 +10404,7 @@
       <c r="I135" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="J135" s="45" t="s">
+      <c r="J135" s="71" t="s">
         <v>168</v>
       </c>
       <c r="K135" s="44" t="str">
@@ -10381,7 +10412,7 @@
         <v>twct-deposit-account-number</v>
       </c>
       <c r="M135" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N135" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10412,10 +10443,10 @@
         <v>214</v>
       </c>
       <c r="F136" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G136" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H136" s="65" t="s">
         <v>216</v>
@@ -10431,7 +10462,7 @@
         <v>twct-deposit-account-numberwith-check-digit</v>
       </c>
       <c r="M136" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N136" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10482,7 +10513,7 @@
       </c>
       <c r="L137" s="65"/>
       <c r="M137" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N137" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10533,7 +10564,7 @@
       </c>
       <c r="L138" s="65"/>
       <c r="M138" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N138" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10584,7 +10615,7 @@
       </c>
       <c r="L139" s="65"/>
       <c r="M139" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N139" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10635,7 +10666,7 @@
       </c>
       <c r="L140" s="65"/>
       <c r="M140" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N140" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10688,7 +10719,7 @@
         <v>132</v>
       </c>
       <c r="M141" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N141" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10739,7 +10770,7 @@
       </c>
       <c r="L142" s="65"/>
       <c r="M142" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N142" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10770,10 +10801,10 @@
         <v>220</v>
       </c>
       <c r="F143" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G143" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H143" s="65" t="s">
         <v>155</v>
@@ -10790,7 +10821,7 @@
       </c>
       <c r="L143" s="65"/>
       <c r="M143" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N143" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10841,7 +10872,7 @@
       </c>
       <c r="L144" s="65"/>
       <c r="M144" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N144" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10892,7 +10923,7 @@
       </c>
       <c r="L145" s="65"/>
       <c r="M145" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N145" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10943,7 +10974,7 @@
       </c>
       <c r="L146" s="65"/>
       <c r="M146" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N146" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10996,7 +11027,7 @@
         <v>234</v>
       </c>
       <c r="M147" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N147" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11047,7 +11078,7 @@
       </c>
       <c r="L148" s="65"/>
       <c r="M148" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N148" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11098,7 +11129,7 @@
       </c>
       <c r="L149" s="65"/>
       <c r="M149" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N149" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11149,7 +11180,7 @@
       </c>
       <c r="L150" s="65"/>
       <c r="M150" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N150" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11200,7 +11231,7 @@
       </c>
       <c r="L151" s="65"/>
       <c r="M151" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N151" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11251,7 +11282,7 @@
       </c>
       <c r="L152" s="65"/>
       <c r="M152" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N152" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11302,7 +11333,7 @@
       </c>
       <c r="L153" s="65"/>
       <c r="M153" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N153" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11353,7 +11384,7 @@
       </c>
       <c r="L154" s="65"/>
       <c r="M154" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N154" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11406,7 +11437,7 @@
         <v>132</v>
       </c>
       <c r="M155" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N155" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11457,7 +11488,7 @@
       </c>
       <c r="L156" s="65"/>
       <c r="M156" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N156" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11488,10 +11519,10 @@
         <v>220</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G157" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H157" s="65" t="s">
         <v>155</v>
@@ -11508,7 +11539,7 @@
       </c>
       <c r="L157" s="65"/>
       <c r="M157" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N157" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11559,7 +11590,7 @@
       </c>
       <c r="L158" s="65"/>
       <c r="M158" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N158" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11610,7 +11641,7 @@
       </c>
       <c r="L159" s="65"/>
       <c r="M159" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N159" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11661,7 +11692,7 @@
       </c>
       <c r="L160" s="65"/>
       <c r="M160" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N160" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11714,7 +11745,7 @@
         <v>234</v>
       </c>
       <c r="M161" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N161" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11765,7 +11796,7 @@
       </c>
       <c r="L162" s="65"/>
       <c r="M162" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N162" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11816,7 +11847,7 @@
       </c>
       <c r="L163" s="65"/>
       <c r="M163" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N163" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11867,7 +11898,7 @@
       </c>
       <c r="L164" s="65"/>
       <c r="M164" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N164" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11881,721 +11912,721 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A165" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B165" s="45" t="s">
+    <row r="165" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C165" s="45" t="s">
+      <c r="C165" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E165" s="45" t="s">
+      <c r="E165" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F165" s="65" t="s">
+      <c r="F165" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="G165" s="65" t="s">
+      <c r="G165" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="H165" s="65" t="s">
+      <c r="H165" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I165" s="65" t="s">
+      <c r="I165" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J165" s="45" t="s">
+      <c r="J165" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="K165" s="44" t="str">
+      <c r="K165" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-account-number</v>
       </c>
-      <c r="L165" s="65"/>
-      <c r="M165" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N165" s="45" t="str">
+      <c r="L165" s="68"/>
+      <c r="M165" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N165" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O165" s="45" t="str">
+      <c r="O165" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P165" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A166" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B166" s="45" t="s">
+      <c r="P165" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B166" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C166" s="45" t="s">
+      <c r="C166" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D166" s="45" t="s">
+      <c r="D166" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E166" s="45" t="s">
+      <c r="E166" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F166" s="65" t="s">
+      <c r="F166" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="G166" s="65" t="s">
+      <c r="G166" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="H166" s="65" t="s">
+      <c r="H166" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I166" s="65" t="s">
+      <c r="I166" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J166" s="45" t="s">
+      <c r="J166" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K166" s="44" t="str">
+      <c r="K166" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-input-password</v>
       </c>
-      <c r="L166" s="65"/>
-      <c r="M166" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N166" s="45" t="str">
+      <c r="L166" s="68"/>
+      <c r="M166" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N166" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O166" s="45" t="str">
+      <c r="O166" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P166" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A167" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B167" s="45" t="s">
+      <c r="P166" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C167" s="45" t="s">
+      <c r="C167" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D167" s="45" t="s">
+      <c r="D167" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E167" s="45" t="s">
+      <c r="E167" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F167" s="65" t="s">
+      <c r="F167" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="G167" s="65" t="s">
+      <c r="G167" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="H167" s="65" t="s">
+      <c r="H167" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I167" s="65" t="s">
+      <c r="I167" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J167" s="45" t="s">
+      <c r="J167" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K167" s="44" t="str">
+      <c r="K167" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-confirm-password</v>
       </c>
-      <c r="L167" s="65"/>
-      <c r="M167" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N167" s="45" t="str">
+      <c r="L167" s="68"/>
+      <c r="M167" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N167" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O167" s="45" t="str">
+      <c r="O167" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P167" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A168" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B168" s="45" t="s">
+      <c r="P167" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C168" s="45" t="s">
+      <c r="C168" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D168" s="45" t="s">
+      <c r="D168" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E168" s="45" t="s">
+      <c r="E168" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F168" s="65" t="s">
+      <c r="F168" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="G168" s="65" t="s">
+      <c r="G168" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="H168" s="65" t="s">
+      <c r="H168" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I168" s="65" t="s">
+      <c r="I168" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J168" s="45" t="s">
+      <c r="J168" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K168" s="44" t="str">
+      <c r="K168" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-branch</v>
       </c>
-      <c r="L168" s="65"/>
-      <c r="M168" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N168" s="45" t="str">
+      <c r="L168" s="68"/>
+      <c r="M168" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N168" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O168" s="45" t="str">
+      <c r="O168" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P168" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A169" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="45" t="s">
+      <c r="P168" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C169" s="45" t="s">
+      <c r="C169" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D169" s="45" t="s">
+      <c r="D169" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E169" s="45" t="s">
+      <c r="E169" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F169" s="65" t="s">
+      <c r="F169" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="G169" s="65" t="s">
+      <c r="G169" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="H169" s="65" t="s">
+      <c r="H169" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I169" s="65" t="s">
+      <c r="I169" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J169" s="45" t="s">
+      <c r="J169" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K169" s="44" t="str">
+      <c r="K169" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-orignating-system</v>
       </c>
-      <c r="L169" s="65" t="s">
+      <c r="L169" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="M169" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N169" s="45" t="str">
+      <c r="M169" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N169" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O169" s="45" t="str">
+      <c r="O169" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P169" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A170" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B170" s="45" t="s">
+      <c r="P169" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C170" s="45" t="s">
+      <c r="C170" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D170" s="45" t="s">
+      <c r="D170" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E170" s="45" t="s">
+      <c r="E170" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F170" s="65" t="s">
+      <c r="F170" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G170" s="65" t="s">
+      <c r="G170" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="H170" s="65" t="s">
+      <c r="H170" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I170" s="65" t="s">
+      <c r="I170" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J170" s="45" t="s">
+      <c r="J170" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K170" s="44" t="str">
+      <c r="K170" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-password-create-date</v>
       </c>
-      <c r="L170" s="65"/>
-      <c r="M170" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N170" s="45" t="str">
+      <c r="L170" s="68"/>
+      <c r="M170" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N170" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O170" s="45" t="str">
+      <c r="O170" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P170" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A171" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B171" s="45" t="s">
+      <c r="P170" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C171" s="45" t="s">
+      <c r="C171" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="D171" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="E171" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F171" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="G171" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="H171" s="65" t="s">
+      <c r="F171" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="G171" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="H171" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I171" s="65" t="s">
+      <c r="I171" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J171" s="45" t="s">
+      <c r="J171" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K171" s="44" t="str">
+      <c r="K171" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-password-reset-date</v>
       </c>
-      <c r="L171" s="65"/>
-      <c r="M171" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N171" s="45" t="str">
+      <c r="L171" s="68"/>
+      <c r="M171" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N171" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O171" s="45" t="str">
+      <c r="O171" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P171" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A172" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B172" s="45" t="s">
+      <c r="P171" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C172" s="45" t="s">
+      <c r="C172" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D172" s="45" t="s">
+      <c r="D172" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E172" s="45" t="s">
+      <c r="E172" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F172" s="65" t="s">
+      <c r="F172" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="G172" s="65" t="s">
+      <c r="G172" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="H172" s="65" t="s">
+      <c r="H172" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I172" s="65" t="s">
+      <c r="I172" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J172" s="45" t="s">
+      <c r="J172" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K172" s="44" t="str">
+      <c r="K172" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-old-password</v>
       </c>
-      <c r="L172" s="65"/>
-      <c r="M172" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N172" s="45" t="str">
+      <c r="L172" s="68"/>
+      <c r="M172" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N172" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O172" s="45" t="str">
+      <c r="O172" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P172" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A173" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B173" s="45" t="s">
+      <c r="P172" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B173" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C173" s="45" t="s">
+      <c r="C173" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D173" s="45" t="s">
+      <c r="D173" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E173" s="45" t="s">
+      <c r="E173" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F173" s="65" t="s">
+      <c r="F173" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="G173" s="65" t="s">
+      <c r="G173" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="H173" s="65" t="s">
+      <c r="H173" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I173" s="65" t="s">
+      <c r="I173" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J173" s="45" t="s">
+      <c r="J173" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K173" s="44" t="str">
+      <c r="K173" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-otc-password-required</v>
       </c>
-      <c r="L173" s="65"/>
-      <c r="M173" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N173" s="45" t="str">
+      <c r="L173" s="68"/>
+      <c r="M173" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N173" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O173" s="45" t="str">
+      <c r="O173" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P173" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A174" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B174" s="45" t="s">
+      <c r="P173" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="45" t="s">
+      <c r="C174" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D174" s="45" t="s">
+      <c r="D174" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E174" s="45" t="s">
+      <c r="E174" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F174" s="65" t="s">
+      <c r="F174" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G174" s="65" t="s">
+      <c r="G174" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="H174" s="65" t="s">
+      <c r="H174" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I174" s="65" t="s">
+      <c r="I174" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J174" s="45" t="s">
+      <c r="J174" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K174" s="44" t="str">
+      <c r="K174" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-incorrect-password-count</v>
       </c>
-      <c r="L174" s="65"/>
-      <c r="M174" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N174" s="45" t="str">
+      <c r="L174" s="68"/>
+      <c r="M174" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N174" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O174" s="45" t="str">
+      <c r="O174" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P174" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A175" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B175" s="45" t="s">
+      <c r="P174" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C175" s="45" t="s">
+      <c r="C175" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D175" s="45" t="s">
+      <c r="D175" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E175" s="45" t="s">
+      <c r="E175" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F175" s="65" t="s">
+      <c r="F175" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="G175" s="65" t="s">
+      <c r="G175" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="H175" s="65" t="s">
+      <c r="H175" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I175" s="65" t="s">
+      <c r="I175" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J175" s="45" t="s">
+      <c r="J175" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K175" s="44" t="str">
+      <c r="K175" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-otc-password-status</v>
       </c>
-      <c r="L175" s="66" t="s">
+      <c r="L175" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="M175" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N175" s="45" t="str">
+      <c r="M175" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N175" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O175" s="45" t="str">
+      <c r="O175" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P175" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A176" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B176" s="45" t="s">
+      <c r="P175" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C176" s="45" t="s">
+      <c r="C176" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D176" s="45" t="s">
+      <c r="D176" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E176" s="45" t="s">
+      <c r="E176" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F176" s="65" t="s">
+      <c r="F176" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G176" s="65" t="s">
+      <c r="G176" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="H176" s="65" t="s">
+      <c r="H176" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I176" s="65" t="s">
+      <c r="I176" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J176" s="45" t="s">
+      <c r="J176" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K176" s="44" t="str">
+      <c r="K176" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-valid-from</v>
       </c>
-      <c r="L176" s="65"/>
-      <c r="M176" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N176" s="45" t="str">
+      <c r="L176" s="68"/>
+      <c r="M176" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N176" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O176" s="45" t="str">
+      <c r="O176" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P176" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A177" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B177" s="45" t="s">
+      <c r="P176" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C177" s="45" t="s">
+      <c r="C177" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D177" s="45" t="s">
+      <c r="D177" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E177" s="45" t="s">
+      <c r="E177" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F177" s="65" t="s">
+      <c r="F177" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="G177" s="65" t="s">
+      <c r="G177" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="H177" s="65" t="s">
+      <c r="H177" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I177" s="65" t="s">
+      <c r="I177" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J177" s="45" t="s">
+      <c r="J177" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K177" s="44" t="str">
+      <c r="K177" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-valid-till</v>
       </c>
-      <c r="L177" s="65"/>
-      <c r="M177" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N177" s="45" t="str">
+      <c r="L177" s="68"/>
+      <c r="M177" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N177" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O177" s="45" t="str">
+      <c r="O177" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P177" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A178" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B178" s="45" t="s">
+      <c r="P177" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C178" s="45" t="s">
+      <c r="C178" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D178" s="45" t="s">
+      <c r="D178" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E178" s="45" t="s">
+      <c r="E178" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F178" s="65" t="s">
+      <c r="F178" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G178" s="65" t="s">
+      <c r="G178" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H178" s="65" t="s">
+      <c r="H178" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="I178" s="65" t="s">
+      <c r="I178" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J178" s="45" t="s">
+      <c r="J178" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K178" s="44" t="str">
+      <c r="K178" s="70" t="str">
         <f t="shared" si="11"/>
         <v>twct-remarks</v>
       </c>
-      <c r="L178" s="65"/>
-      <c r="M178" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="N178" s="45" t="str">
+      <c r="L178" s="68"/>
+      <c r="M178" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="N178" s="69" t="str">
         <f t="shared" si="12"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="O178" s="45" t="str">
+      <c r="O178" s="69" t="str">
         <f t="shared" si="13"/>
         <v>Enquire OTC Password</v>
       </c>
-      <c r="P178" s="45" t="b">
+      <c r="P178" s="69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12616,10 +12647,10 @@
         <v>240</v>
       </c>
       <c r="F179" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G179" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H179" s="65" t="s">
         <v>183</v>
@@ -12635,7 +12666,7 @@
         <v>twct-minor-cif-number</v>
       </c>
       <c r="M179" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N179" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12666,10 +12697,10 @@
         <v>240</v>
       </c>
       <c r="F180" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G180" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H180" s="65" t="s">
         <v>241</v>
@@ -12685,7 +12716,7 @@
         <v>twct-minor-account-number</v>
       </c>
       <c r="M180" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N180" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12735,7 +12766,7 @@
         <v>twct-channel</v>
       </c>
       <c r="M181" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N181" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12785,7 +12816,7 @@
         <v>twct-legal-representative-1-cif-number</v>
       </c>
       <c r="M182" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N182" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12835,7 +12866,7 @@
         <v>twct-legal-representative-1-reply-flag</v>
       </c>
       <c r="M183" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N183" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12885,7 +12916,7 @@
         <v>twct-legal-representative-1-reply-date</v>
       </c>
       <c r="M184" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N184" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12916,10 +12947,10 @@
         <v>240</v>
       </c>
       <c r="F185" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G185" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H185" s="65" t="s">
         <v>242</v>
@@ -12935,7 +12966,7 @@
         <v>twct-legal-representative-2-cif-number</v>
       </c>
       <c r="M185" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N185" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12985,7 +13016,7 @@
         <v>twct-legal-representative-2-reply-flag</v>
       </c>
       <c r="M186" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N186" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13035,7 +13066,7 @@
         <v>twct-legal-representative-2-reply-date</v>
       </c>
       <c r="M187" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N187" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13085,7 +13116,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M188" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N188" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13135,7 +13166,7 @@
         <v>twct-binding-failed-status</v>
       </c>
       <c r="M189" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N189" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13157,7 +13188,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D190" s="45" t="s">
         <v>240</v>
@@ -13166,10 +13197,10 @@
         <v>240</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G190" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H190" s="65" t="s">
         <v>183</v>
@@ -13185,7 +13216,7 @@
         <v>twct-minor-cif-number</v>
       </c>
       <c r="M190" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N190" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13207,7 +13238,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D191" s="45" t="s">
         <v>240</v>
@@ -13216,10 +13247,10 @@
         <v>240</v>
       </c>
       <c r="F191" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G191" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H191" s="65" t="s">
         <v>241</v>
@@ -13235,7 +13266,7 @@
         <v>twct-minor-account-number</v>
       </c>
       <c r="M191" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N191" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13257,7 +13288,7 @@
         <v>187</v>
       </c>
       <c r="C192" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D192" s="45" t="s">
         <v>240</v>
@@ -13285,7 +13316,7 @@
         <v>twct-channel</v>
       </c>
       <c r="M192" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N192" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13307,7 +13338,7 @@
         <v>187</v>
       </c>
       <c r="C193" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D193" s="45" t="s">
         <v>240</v>
@@ -13335,7 +13366,7 @@
         <v>twct-legal-representative-1-cif-number</v>
       </c>
       <c r="M193" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N193" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13357,7 +13388,7 @@
         <v>187</v>
       </c>
       <c r="C194" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D194" s="45" t="s">
         <v>240</v>
@@ -13385,7 +13416,7 @@
         <v>twct-legal-representative-1-reply-flag</v>
       </c>
       <c r="M194" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N194" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13407,7 +13438,7 @@
         <v>187</v>
       </c>
       <c r="C195" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D195" s="45" t="s">
         <v>240</v>
@@ -13435,7 +13466,7 @@
         <v>twct-legal-representative-1-reply-date</v>
       </c>
       <c r="M195" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N195" s="45" t="str">
         <f t="shared" ref="N195:N258" si="15">C195</f>
@@ -13457,7 +13488,7 @@
         <v>187</v>
       </c>
       <c r="C196" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D196" s="45" t="s">
         <v>240</v>
@@ -13466,10 +13497,10 @@
         <v>240</v>
       </c>
       <c r="F196" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G196" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H196" s="65" t="s">
         <v>242</v>
@@ -13485,7 +13516,7 @@
         <v>twct-legal-representative-2-cif-number</v>
       </c>
       <c r="M196" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N196" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13507,7 +13538,7 @@
         <v>187</v>
       </c>
       <c r="C197" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D197" s="45" t="s">
         <v>240</v>
@@ -13535,7 +13566,7 @@
         <v>twct-legal-representative-2-reply-flag</v>
       </c>
       <c r="M197" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N197" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13557,7 +13588,7 @@
         <v>187</v>
       </c>
       <c r="C198" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D198" s="45" t="s">
         <v>240</v>
@@ -13585,7 +13616,7 @@
         <v>twct-legal-representative-2-reply-date</v>
       </c>
       <c r="M198" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N198" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13607,7 +13638,7 @@
         <v>187</v>
       </c>
       <c r="C199" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D199" s="45" t="s">
         <v>240</v>
@@ -13635,7 +13666,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M199" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N199" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13657,7 +13688,7 @@
         <v>187</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D200" s="45" t="s">
         <v>240</v>
@@ -13685,7 +13716,7 @@
         <v>twct-binding-failed-status</v>
       </c>
       <c r="M200" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N200" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13707,7 +13738,7 @@
         <v>187</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D201" s="45" t="s">
         <v>240</v>
@@ -13716,10 +13747,10 @@
         <v>240</v>
       </c>
       <c r="F201" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G201" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H201" s="65" t="s">
         <v>183</v>
@@ -13727,15 +13758,15 @@
       <c r="I201" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="J201" s="45" t="s">
-        <v>168</v>
+      <c r="J201" s="71" t="s">
+        <v>406</v>
       </c>
       <c r="K201" s="44" t="str">
         <f t="shared" si="14"/>
         <v>twct-minor-cif-number</v>
       </c>
       <c r="M201" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N201" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13757,7 +13788,7 @@
         <v>187</v>
       </c>
       <c r="C202" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D202" s="45" t="s">
         <v>240</v>
@@ -13766,10 +13797,10 @@
         <v>240</v>
       </c>
       <c r="F202" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G202" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H202" s="65" t="s">
         <v>241</v>
@@ -13785,7 +13816,7 @@
         <v>twct-minor-account-number</v>
       </c>
       <c r="M202" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N202" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13807,7 +13838,7 @@
         <v>187</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D203" s="45" t="s">
         <v>240</v>
@@ -13835,7 +13866,7 @@
         <v>twct-channel</v>
       </c>
       <c r="M203" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N203" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13857,7 +13888,7 @@
         <v>187</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D204" s="45" t="s">
         <v>240</v>
@@ -13885,7 +13916,7 @@
         <v>twct-legal-representative-1-cif-number</v>
       </c>
       <c r="M204" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N204" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13907,7 +13938,7 @@
         <v>187</v>
       </c>
       <c r="C205" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D205" s="45" t="s">
         <v>240</v>
@@ -13935,7 +13966,7 @@
         <v>twct-legal-representative-1-reply-flag</v>
       </c>
       <c r="M205" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N205" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13957,7 +13988,7 @@
         <v>187</v>
       </c>
       <c r="C206" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D206" s="45" t="s">
         <v>240</v>
@@ -13985,7 +14016,7 @@
         <v>twct-legal-representative-1-reply-date</v>
       </c>
       <c r="M206" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N206" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14007,7 +14038,7 @@
         <v>187</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D207" s="45" t="s">
         <v>240</v>
@@ -14016,10 +14047,10 @@
         <v>240</v>
       </c>
       <c r="F207" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G207" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H207" s="65" t="s">
         <v>242</v>
@@ -14035,7 +14066,7 @@
         <v>twct-legal-representative-2-cif-number</v>
       </c>
       <c r="M207" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N207" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14057,7 +14088,7 @@
         <v>187</v>
       </c>
       <c r="C208" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D208" s="45" t="s">
         <v>240</v>
@@ -14085,7 +14116,7 @@
         <v>twct-legal-representative-2-reply-flag</v>
       </c>
       <c r="M208" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N208" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14107,7 +14138,7 @@
         <v>187</v>
       </c>
       <c r="C209" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D209" s="45" t="s">
         <v>240</v>
@@ -14135,7 +14166,7 @@
         <v>twct-legal-representative-2-reply-date</v>
       </c>
       <c r="M209" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N209" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14157,7 +14188,7 @@
         <v>187</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D210" s="45" t="s">
         <v>240</v>
@@ -14185,7 +14216,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M210" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N210" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14207,7 +14238,7 @@
         <v>187</v>
       </c>
       <c r="C211" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D211" s="45" t="s">
         <v>240</v>
@@ -14235,7 +14266,7 @@
         <v>twct-binding-failed-status</v>
       </c>
       <c r="M211" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N211" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14285,7 +14316,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M212" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N212" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14307,7 +14338,7 @@
         <v>187</v>
       </c>
       <c r="C213" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D213" s="45" t="s">
         <v>258</v>
@@ -14335,7 +14366,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M213" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N213" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14357,7 +14388,7 @@
         <v>187</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D214" s="45" t="s">
         <v>258</v>
@@ -14385,7 +14416,7 @@
         <v>twct-request-id</v>
       </c>
       <c r="M214" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N214" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14407,7 +14438,7 @@
         <v>187</v>
       </c>
       <c r="C215" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D215" s="45" t="s">
         <v>258</v>
@@ -14435,7 +14466,7 @@
         <v>twct-global-header-code</v>
       </c>
       <c r="M215" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N215" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14457,7 +14488,7 @@
         <v>187</v>
       </c>
       <c r="C216" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D216" s="45" t="s">
         <v>258</v>
@@ -14485,7 +14516,7 @@
         <v>twct-external-system-id</v>
       </c>
       <c r="M216" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N216" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14507,7 +14538,7 @@
         <v>187</v>
       </c>
       <c r="C217" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D217" s="45" t="s">
         <v>258</v>
@@ -14516,10 +14547,10 @@
         <v>259</v>
       </c>
       <c r="F217" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G217" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H217" s="65" t="s">
         <v>270</v>
@@ -14535,7 +14566,7 @@
         <v>twct-branch-number</v>
       </c>
       <c r="M217" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N217" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14557,7 +14588,7 @@
         <v>187</v>
       </c>
       <c r="C218" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D218" s="45" t="s">
         <v>258</v>
@@ -14585,7 +14616,7 @@
         <v>twct-operation-type</v>
       </c>
       <c r="M218" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N218" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14607,7 +14638,7 @@
         <v>187</v>
       </c>
       <c r="C219" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D219" s="45" t="s">
         <v>258</v>
@@ -14635,7 +14666,7 @@
         <v>twct-user-id</v>
       </c>
       <c r="M219" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N219" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14657,7 +14688,7 @@
         <v>187</v>
       </c>
       <c r="C220" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D220" s="45" t="s">
         <v>258</v>
@@ -14685,7 +14716,7 @@
         <v>twct-user-branch-number</v>
       </c>
       <c r="M220" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N220" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14707,7 +14738,7 @@
         <v>187</v>
       </c>
       <c r="C221" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D221" s="45" t="s">
         <v>258</v>
@@ -14735,7 +14766,7 @@
         <v>twct-customer-name</v>
       </c>
       <c r="M221" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N221" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14757,7 +14788,7 @@
         <v>187</v>
       </c>
       <c r="C222" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D222" s="45" t="s">
         <v>258</v>
@@ -14785,7 +14816,7 @@
         <v>twct-global-header-code-linkage-status</v>
       </c>
       <c r="M222" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N222" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14807,7 +14838,7 @@
         <v>187</v>
       </c>
       <c r="C223" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D223" s="45" t="s">
         <v>258</v>
@@ -14835,7 +14866,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M223" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N223" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14857,7 +14888,7 @@
         <v>187</v>
       </c>
       <c r="C224" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D224" s="45" t="s">
         <v>258</v>
@@ -14885,7 +14916,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M224" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N224" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14907,7 +14938,7 @@
         <v>187</v>
       </c>
       <c r="C225" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D225" s="45" t="s">
         <v>258</v>
@@ -14935,7 +14966,7 @@
         <v>twct-request-id</v>
       </c>
       <c r="M225" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N225" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14957,7 +14988,7 @@
         <v>187</v>
       </c>
       <c r="C226" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D226" s="45" t="s">
         <v>258</v>
@@ -14985,7 +15016,7 @@
         <v>twct-global-header-code</v>
       </c>
       <c r="M226" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N226" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15007,7 +15038,7 @@
         <v>187</v>
       </c>
       <c r="C227" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D227" s="45" t="s">
         <v>258</v>
@@ -15035,7 +15066,7 @@
         <v>twct-external-system-id</v>
       </c>
       <c r="M227" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N227" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15057,7 +15088,7 @@
         <v>187</v>
       </c>
       <c r="C228" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D228" s="45" t="s">
         <v>258</v>
@@ -15066,10 +15097,10 @@
         <v>259</v>
       </c>
       <c r="F228" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G228" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H228" s="65" t="s">
         <v>270</v>
@@ -15085,7 +15116,7 @@
         <v>twct-branch-number</v>
       </c>
       <c r="M228" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N228" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15107,7 +15138,7 @@
         <v>187</v>
       </c>
       <c r="C229" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D229" s="45" t="s">
         <v>258</v>
@@ -15135,7 +15166,7 @@
         <v>twct-operation-type</v>
       </c>
       <c r="M229" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N229" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15157,7 +15188,7 @@
         <v>187</v>
       </c>
       <c r="C230" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D230" s="45" t="s">
         <v>258</v>
@@ -15185,7 +15216,7 @@
         <v>twct-user-id</v>
       </c>
       <c r="M230" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N230" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15207,7 +15238,7 @@
         <v>187</v>
       </c>
       <c r="C231" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D231" s="45" t="s">
         <v>258</v>
@@ -15235,7 +15266,7 @@
         <v>twct-user-branch-number</v>
       </c>
       <c r="M231" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N231" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15257,7 +15288,7 @@
         <v>187</v>
       </c>
       <c r="C232" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D232" s="45" t="s">
         <v>258</v>
@@ -15285,7 +15316,7 @@
         <v>twct-customer-name</v>
       </c>
       <c r="M232" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N232" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15307,7 +15338,7 @@
         <v>187</v>
       </c>
       <c r="C233" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D233" s="45" t="s">
         <v>258</v>
@@ -15335,7 +15366,7 @@
         <v>twct-global-header-code-linkage-status</v>
       </c>
       <c r="M233" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N233" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15357,7 +15388,7 @@
         <v>187</v>
       </c>
       <c r="C234" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D234" s="45" t="s">
         <v>258</v>
@@ -15385,7 +15416,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M234" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N234" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15407,7 +15438,7 @@
         <v>187</v>
       </c>
       <c r="C235" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D235" s="45" t="s">
         <v>258</v>
@@ -15435,7 +15466,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M235" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N235" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15457,7 +15488,7 @@
         <v>187</v>
       </c>
       <c r="C236" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D236" s="45" t="s">
         <v>258</v>
@@ -15485,7 +15516,7 @@
         <v>twct-request-id</v>
       </c>
       <c r="M236" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N236" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15507,7 +15538,7 @@
         <v>187</v>
       </c>
       <c r="C237" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D237" s="45" t="s">
         <v>258</v>
@@ -15535,7 +15566,7 @@
         <v>twct-global-header-code</v>
       </c>
       <c r="M237" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N237" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15557,7 +15588,7 @@
         <v>187</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D238" s="45" t="s">
         <v>258</v>
@@ -15585,7 +15616,7 @@
         <v>twct-external-system-id</v>
       </c>
       <c r="M238" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N238" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15607,7 +15638,7 @@
         <v>187</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D239" s="45" t="s">
         <v>258</v>
@@ -15616,10 +15647,10 @@
         <v>259</v>
       </c>
       <c r="F239" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G239" s="65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H239" s="65" t="s">
         <v>270</v>
@@ -15635,7 +15666,7 @@
         <v>twct-branch-number</v>
       </c>
       <c r="M239" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N239" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15657,7 +15688,7 @@
         <v>187</v>
       </c>
       <c r="C240" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D240" s="45" t="s">
         <v>258</v>
@@ -15685,7 +15716,7 @@
         <v>twct-operation-type</v>
       </c>
       <c r="M240" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N240" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15707,7 +15738,7 @@
         <v>187</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D241" s="45" t="s">
         <v>258</v>
@@ -15735,7 +15766,7 @@
         <v>twct-user-id</v>
       </c>
       <c r="M241" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N241" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15757,7 +15788,7 @@
         <v>187</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D242" s="45" t="s">
         <v>258</v>
@@ -15785,7 +15816,7 @@
         <v>twct-user-branch-number</v>
       </c>
       <c r="M242" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N242" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15807,7 +15838,7 @@
         <v>187</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D243" s="45" t="s">
         <v>258</v>
@@ -15835,7 +15866,7 @@
         <v>twct-customer-name</v>
       </c>
       <c r="M243" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N243" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15857,7 +15888,7 @@
         <v>187</v>
       </c>
       <c r="C244" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D244" s="45" t="s">
         <v>258</v>
@@ -15885,7 +15916,7 @@
         <v>twct-global-header-code-linkage-status-</v>
       </c>
       <c r="M244" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N244" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15907,7 +15938,7 @@
         <v>187</v>
       </c>
       <c r="C245" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D245" s="45" t="s">
         <v>258</v>
@@ -15935,7 +15966,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M245" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N245" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15957,7 +15988,7 @@
         <v>187</v>
       </c>
       <c r="C246" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D246" s="45" t="s">
         <v>258</v>
@@ -15985,7 +16016,7 @@
         <v>twct-global-header-code-linkage-status</v>
       </c>
       <c r="M246" s="45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N246" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16007,7 +16038,7 @@
         <v>187</v>
       </c>
       <c r="C247" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D247" s="45" t="s">
         <v>258</v>
@@ -16035,7 +16066,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M247" s="45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N247" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16088,7 +16119,7 @@
         <v>218</v>
       </c>
       <c r="M248" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N248" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16141,7 +16172,7 @@
         <v>218</v>
       </c>
       <c r="M249" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N249" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16194,7 +16225,7 @@
         <v>218</v>
       </c>
       <c r="M250" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N250" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16245,7 +16276,7 @@
       </c>
       <c r="L251" s="65"/>
       <c r="M251" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N251" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16296,7 +16327,7 @@
       </c>
       <c r="L252" s="65"/>
       <c r="M252" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N252" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16349,7 +16380,7 @@
         <v>302</v>
       </c>
       <c r="M253" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N253" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16400,7 +16431,7 @@
       </c>
       <c r="L254" s="65"/>
       <c r="M254" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N254" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16451,7 +16482,7 @@
       </c>
       <c r="L255" s="65"/>
       <c r="M255" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N255" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16504,7 +16535,7 @@
         <v>303</v>
       </c>
       <c r="M256" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N256" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16555,7 +16586,7 @@
       </c>
       <c r="L257" s="65"/>
       <c r="M257" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N257" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16606,7 +16637,7 @@
       </c>
       <c r="L258" s="65"/>
       <c r="M258" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N258" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16657,7 +16688,7 @@
       </c>
       <c r="L259" s="65"/>
       <c r="M259" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N259" s="45" t="str">
         <f t="shared" ref="N259:N299" si="19">C259</f>
@@ -16708,7 +16739,7 @@
       </c>
       <c r="L260" s="65"/>
       <c r="M260" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N260" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16761,7 +16792,7 @@
         <v>302</v>
       </c>
       <c r="M261" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N261" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16812,7 +16843,7 @@
       </c>
       <c r="L262" s="65"/>
       <c r="M262" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N262" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16863,7 +16894,7 @@
       </c>
       <c r="L263" s="65"/>
       <c r="M263" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N263" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16916,7 +16947,7 @@
         <v>303</v>
       </c>
       <c r="M264" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N264" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16967,7 +16998,7 @@
       </c>
       <c r="L265" s="65"/>
       <c r="M265" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N265" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17018,7 +17049,7 @@
       </c>
       <c r="L266" s="65"/>
       <c r="M266" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N266" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17032,415 +17063,415 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A267" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B267" s="45" t="s">
+    <row r="267" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B267" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C267" s="45" t="s">
+      <c r="C267" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D267" s="45" t="s">
+      <c r="D267" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E267" s="45" t="s">
+      <c r="E267" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F267" s="65" t="s">
+      <c r="F267" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="G267" s="65" t="s">
+      <c r="G267" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="H267" s="65" t="s">
+      <c r="H267" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="I267" s="65" t="s">
+      <c r="I267" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J267" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="K267" s="44" t="str">
+      <c r="J267" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="K267" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-account-number</v>
       </c>
-      <c r="L267" s="65"/>
-      <c r="M267" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N267" s="45" t="str">
+      <c r="L267" s="68"/>
+      <c r="M267" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N267" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O267" s="45" t="str">
+      <c r="O267" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P267" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A268" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B268" s="45" t="s">
+      <c r="P267" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B268" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C268" s="45" t="s">
+      <c r="C268" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D268" s="45" t="s">
+      <c r="D268" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E268" s="45" t="s">
+      <c r="E268" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F268" s="65" t="s">
+      <c r="F268" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="G268" s="65" t="s">
+      <c r="G268" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="H268" s="65" t="s">
+      <c r="H268" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="I268" s="65" t="s">
+      <c r="I268" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J268" s="45" t="s">
+      <c r="J268" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K268" s="44" t="str">
+      <c r="K268" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-consent-purpose</v>
       </c>
-      <c r="L268" s="65"/>
-      <c r="M268" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N268" s="45" t="str">
+      <c r="L268" s="68"/>
+      <c r="M268" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N268" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O268" s="45" t="str">
+      <c r="O268" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P268" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A269" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B269" s="45" t="s">
+      <c r="P268" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B269" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C269" s="45" t="s">
+      <c r="C269" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D269" s="45" t="s">
+      <c r="D269" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E269" s="45" t="s">
+      <c r="E269" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F269" s="65" t="s">
+      <c r="F269" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="G269" s="65" t="s">
+      <c r="G269" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="H269" s="65" t="s">
+      <c r="H269" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="I269" s="65" t="s">
+      <c r="I269" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J269" s="45" t="s">
+      <c r="J269" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K269" s="44" t="str">
+      <c r="K269" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-consent-purpose-status</v>
       </c>
-      <c r="L269" s="65" t="s">
+      <c r="L269" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="M269" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N269" s="45" t="str">
+      <c r="M269" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N269" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O269" s="45" t="str">
+      <c r="O269" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P269" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A270" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B270" s="45" t="s">
+      <c r="P269" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B270" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C270" s="45" t="s">
+      <c r="C270" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D270" s="45" t="s">
+      <c r="D270" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E270" s="45" t="s">
+      <c r="E270" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F270" s="65" t="s">
+      <c r="F270" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="G270" s="65" t="s">
+      <c r="G270" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="H270" s="65" t="s">
+      <c r="H270" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I270" s="65" t="s">
+      <c r="I270" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J270" s="45" t="s">
+      <c r="J270" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K270" s="44" t="str">
+      <c r="K270" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-consent-provided-date</v>
       </c>
-      <c r="L270" s="65"/>
-      <c r="M270" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N270" s="45" t="str">
+      <c r="L270" s="68"/>
+      <c r="M270" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N270" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O270" s="45" t="str">
+      <c r="O270" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P270" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A271" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B271" s="45" t="s">
+      <c r="P270" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B271" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C271" s="45" t="s">
+      <c r="C271" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D271" s="45" t="s">
+      <c r="D271" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E271" s="45" t="s">
+      <c r="E271" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F271" s="65" t="s">
+      <c r="F271" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="G271" s="65" t="s">
+      <c r="G271" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="H271" s="65" t="s">
+      <c r="H271" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I271" s="65" t="s">
+      <c r="I271" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J271" s="45" t="s">
+      <c r="J271" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K271" s="44" t="str">
+      <c r="K271" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-consent-withdrawal-date</v>
       </c>
-      <c r="L271" s="65"/>
-      <c r="M271" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N271" s="45" t="str">
+      <c r="L271" s="68"/>
+      <c r="M271" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N271" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O271" s="45" t="str">
+      <c r="O271" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P271" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A272" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B272" s="45" t="s">
+      <c r="P271" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B272" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C272" s="45" t="s">
+      <c r="C272" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D272" s="45" t="s">
+      <c r="D272" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E272" s="45" t="s">
+      <c r="E272" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F272" s="65" t="s">
+      <c r="F272" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="G272" s="65" t="s">
+      <c r="G272" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="H272" s="65" t="s">
+      <c r="H272" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I272" s="65" t="s">
+      <c r="I272" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J272" s="45" t="s">
+      <c r="J272" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K272" s="44" t="str">
+      <c r="K272" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-consent-provided-by</v>
       </c>
-      <c r="L272" s="65" t="s">
+      <c r="L272" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="M272" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N272" s="45" t="str">
+      <c r="M272" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N272" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O272" s="45" t="str">
+      <c r="O272" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P272" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A273" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B273" s="45" t="s">
+      <c r="P272" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B273" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C273" s="45" t="s">
+      <c r="C273" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D273" s="45" t="s">
+      <c r="D273" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E273" s="45" t="s">
+      <c r="E273" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F273" s="65" t="s">
+      <c r="F273" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G273" s="65" t="s">
+      <c r="G273" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H273" s="65" t="s">
+      <c r="H273" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="I273" s="65" t="s">
+      <c r="I273" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J273" s="45" t="s">
+      <c r="J273" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K273" s="44" t="str">
+      <c r="K273" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-remarks</v>
       </c>
-      <c r="L273" s="65"/>
-      <c r="M273" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N273" s="45" t="str">
+      <c r="L273" s="68"/>
+      <c r="M273" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N273" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O273" s="45" t="str">
+      <c r="O273" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P273" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A274" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B274" s="45" t="s">
+      <c r="P273" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B274" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C274" s="45" t="s">
+      <c r="C274" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D274" s="45" t="s">
+      <c r="D274" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="E274" s="45" t="s">
+      <c r="E274" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="F274" s="65" t="s">
+      <c r="F274" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="G274" s="65" t="s">
+      <c r="G274" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="H274" s="65" t="s">
+      <c r="H274" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="I274" s="65" t="s">
+      <c r="I274" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="J274" s="45" t="s">
+      <c r="J274" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K274" s="44" t="str">
+      <c r="K274" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-unique-document-reference</v>
       </c>
-      <c r="L274" s="65"/>
-      <c r="M274" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="N274" s="45" t="str">
+      <c r="L274" s="68"/>
+      <c r="M274" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="N274" s="69" t="str">
         <f t="shared" si="19"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="O274" s="45" t="str">
+      <c r="O274" s="69" t="str">
         <f t="shared" si="20"/>
         <v>Get Demand Deposit Consent</v>
       </c>
-      <c r="P274" s="45" t="b">
+      <c r="P274" s="69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -17480,7 +17511,7 @@
         <v>twct-consent-status</v>
       </c>
       <c r="M275" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N275" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17530,7 +17561,7 @@
         <v>twct-cosent-remark</v>
       </c>
       <c r="M276" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N276" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17555,10 +17586,10 @@
         <v>309</v>
       </c>
       <c r="D277" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F277" s="65" t="s">
         <v>321</v>
@@ -17580,7 +17611,7 @@
         <v>twct-customer-number</v>
       </c>
       <c r="M277" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N277" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17605,10 +17636,10 @@
         <v>309</v>
       </c>
       <c r="D278" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F278" s="65" t="s">
         <v>178</v>
@@ -17630,7 +17661,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M278" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N278" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17655,10 +17686,10 @@
         <v>309</v>
       </c>
       <c r="D279" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E279" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F279" s="65" t="s">
         <v>311</v>
@@ -17680,7 +17711,7 @@
         <v>twct-instrument-id</v>
       </c>
       <c r="M279" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N279" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17705,10 +17736,10 @@
         <v>309</v>
       </c>
       <c r="D280" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E280" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F280" s="65" t="s">
         <v>322</v>
@@ -17730,7 +17761,7 @@
         <v>twct-ceiling-amount</v>
       </c>
       <c r="M280" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N280" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17755,16 +17786,16 @@
         <v>309</v>
       </c>
       <c r="D281" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E281" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F281" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G281" s="65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H281" s="65" t="s">
         <v>319</v>
@@ -17780,7 +17811,7 @@
         <v>twct-account-creation-and-switch-date</v>
       </c>
       <c r="M281" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N281" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17805,10 +17836,10 @@
         <v>309</v>
       </c>
       <c r="D282" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E282" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F282" s="65" t="s">
         <v>313</v>
@@ -17830,7 +17861,7 @@
         <v>twct-end-date</v>
       </c>
       <c r="M282" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N282" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17855,10 +17886,10 @@
         <v>309</v>
       </c>
       <c r="D283" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E283" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F283" s="65" t="s">
         <v>314</v>
@@ -17883,7 +17914,7 @@
         <v>320</v>
       </c>
       <c r="M283" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N283" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17905,13 +17936,13 @@
         <v>187</v>
       </c>
       <c r="C284" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D284" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E284" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F284" s="65" t="s">
         <v>321</v>
@@ -17933,7 +17964,7 @@
         <v>twct-customer-number</v>
       </c>
       <c r="M284" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N284" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17955,13 +17986,13 @@
         <v>187</v>
       </c>
       <c r="C285" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D285" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E285" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F285" s="65" t="s">
         <v>178</v>
@@ -17983,7 +18014,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M285" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N285" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18005,13 +18036,13 @@
         <v>187</v>
       </c>
       <c r="C286" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D286" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E286" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F286" s="65" t="s">
         <v>311</v>
@@ -18033,7 +18064,7 @@
         <v>twct-instrument-id</v>
       </c>
       <c r="M286" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N286" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18055,13 +18086,13 @@
         <v>187</v>
       </c>
       <c r="C287" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D287" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E287" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F287" s="65" t="s">
         <v>322</v>
@@ -18083,7 +18114,7 @@
         <v>twct-ceiling-amount</v>
       </c>
       <c r="M287" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N287" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18105,19 +18136,19 @@
         <v>187</v>
       </c>
       <c r="C288" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D288" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E288" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F288" s="65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G288" s="65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H288" s="65" t="s">
         <v>319</v>
@@ -18134,7 +18165,7 @@
 </v>
       </c>
       <c r="M288" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N288" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18156,13 +18187,13 @@
         <v>187</v>
       </c>
       <c r="C289" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D289" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E289" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F289" s="65" t="s">
         <v>313</v>
@@ -18184,7 +18215,7 @@
         <v>twct-end-date</v>
       </c>
       <c r="M289" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N289" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18206,13 +18237,13 @@
         <v>187</v>
       </c>
       <c r="C290" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D290" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E290" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F290" s="65" t="s">
         <v>314</v>
@@ -18237,7 +18268,7 @@
         <v>320</v>
       </c>
       <c r="M290" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N290" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18251,357 +18282,357 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A291" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B291" s="45" t="s">
+    <row r="291" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B291" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C291" s="45" t="s">
+      <c r="C291" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D291" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E291" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F291" s="65" t="s">
+      <c r="D291" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E291" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F291" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="G291" s="65" t="s">
+      <c r="G291" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H291" s="65" t="s">
+      <c r="H291" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="I291" s="65" t="s">
+      <c r="I291" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J291" s="45" t="s">
+      <c r="J291" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="K291" s="44" t="str">
+      <c r="K291" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-customer-number</v>
       </c>
-      <c r="M291" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N291" s="45" t="str">
+      <c r="M291" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N291" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O291" s="45" t="str">
+      <c r="O291" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P291" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A292" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B292" s="45" t="s">
+      <c r="P291" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B292" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C292" s="45" t="s">
+      <c r="C292" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D292" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E292" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F292" s="65" t="s">
+      <c r="D292" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E292" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F292" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="G292" s="65" t="s">
+      <c r="G292" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="H292" s="65" t="s">
+      <c r="H292" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="I292" s="65" t="s">
+      <c r="I292" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J292" s="45" t="s">
+      <c r="J292" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K292" s="44" t="str">
+      <c r="K292" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-account-number</v>
       </c>
-      <c r="M292" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N292" s="45" t="str">
+      <c r="M292" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N292" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O292" s="45" t="str">
+      <c r="O292" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P292" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A293" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B293" s="45" t="s">
+      <c r="P292" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B293" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C293" s="45" t="s">
+      <c r="C293" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D293" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E293" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F293" s="65" t="s">
+      <c r="D293" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E293" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F293" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="G293" s="65" t="s">
+      <c r="G293" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="H293" s="65" t="s">
+      <c r="H293" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="I293" s="65" t="s">
+      <c r="I293" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J293" s="45" t="s">
+      <c r="J293" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K293" s="44" t="str">
+      <c r="K293" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-instrument-id</v>
       </c>
-      <c r="M293" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N293" s="45" t="str">
+      <c r="M293" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N293" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O293" s="45" t="str">
+      <c r="O293" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P293" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A294" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B294" s="45" t="s">
+      <c r="P293" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B294" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C294" s="45" t="s">
+      <c r="C294" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D294" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E294" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F294" s="65" t="s">
+      <c r="D294" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E294" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F294" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="G294" s="65" t="s">
+      <c r="G294" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="H294" s="65" t="s">
+      <c r="H294" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="I294" s="65" t="s">
+      <c r="I294" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J294" s="45" t="s">
+      <c r="J294" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K294" s="44" t="str">
+      <c r="K294" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-ceiling-amount</v>
       </c>
-      <c r="M294" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N294" s="45" t="str">
+      <c r="M294" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N294" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O294" s="45" t="str">
+      <c r="O294" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P294" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
-      <c r="A295" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B295" s="45" t="s">
+      <c r="P294" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="69" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A295" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B295" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C295" s="45" t="s">
+      <c r="C295" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D295" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E295" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F295" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="G295" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="H295" s="65" t="s">
+      <c r="D295" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E295" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F295" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="G295" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="H295" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="I295" s="65" t="s">
+      <c r="I295" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J295" s="45" t="s">
+      <c r="J295" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K295" s="44" t="str">
+      <c r="K295" s="70" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">twct-account-creation-and-switch-date
 </v>
       </c>
-      <c r="M295" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N295" s="45" t="str">
+      <c r="M295" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N295" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O295" s="45" t="str">
+      <c r="O295" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P295" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A296" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B296" s="45" t="s">
+      <c r="P295" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B296" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C296" s="45" t="s">
+      <c r="C296" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D296" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E296" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F296" s="65" t="s">
+      <c r="D296" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E296" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F296" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="G296" s="65" t="s">
+      <c r="G296" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="H296" s="65" t="s">
+      <c r="H296" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="I296" s="65" t="s">
+      <c r="I296" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J296" s="45" t="s">
+      <c r="J296" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K296" s="44" t="str">
+      <c r="K296" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-end-date</v>
       </c>
-      <c r="M296" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N296" s="45" t="str">
+      <c r="M296" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N296" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O296" s="45" t="str">
+      <c r="O296" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P296" s="45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A297" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B297" s="45" t="s">
+      <c r="P296" s="69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B297" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C297" s="45" t="s">
+      <c r="C297" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D297" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E297" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F297" s="65" t="s">
+      <c r="D297" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="E297" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="F297" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="G297" s="65" t="s">
+      <c r="G297" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="H297" s="65" t="s">
+      <c r="H297" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="I297" s="65" t="s">
+      <c r="I297" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J297" s="45" t="s">
+      <c r="J297" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="K297" s="44" t="str">
+      <c r="K297" s="70" t="str">
         <f t="shared" si="18"/>
         <v>twct-emcm-account-status</v>
       </c>
-      <c r="L297" s="65" t="s">
+      <c r="L297" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="M297" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="N297" s="45" t="str">
+      <c r="M297" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="N297" s="69" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="O297" s="45" t="str">
+      <c r="O297" s="69" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">Get EMCM </v>
       </c>
-      <c r="P297" s="45" t="b">
+      <c r="P297" s="69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18616,10 +18647,10 @@
         <v>316</v>
       </c>
       <c r="D298" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F298" s="45" t="s">
         <v>317</v>
@@ -18641,7 +18672,7 @@
         <v>twct-record-status</v>
       </c>
       <c r="M298" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N298" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18666,10 +18697,10 @@
         <v>316</v>
       </c>
       <c r="D299" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F299" s="45" t="s">
         <v>59</v>
@@ -18691,7 +18722,7 @@
         <v>twct-remarks</v>
       </c>
       <c r="M299" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N299" s="45" t="str">
         <f t="shared" si="19"/>

--- a/src/test/input/used/DDA/Deposit scope for_FSD_DDA_20250221.xlsx
+++ b/src/test/input/used/DDA/Deposit scope for_FSD_DDA_20250221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58205E5C-01A1-4853-8C62-FE13DEAD5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2A821-84A1-4823-952C-C8809C74CF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="29020" windowHeight="15700" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Domain_Range" sheetId="21" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'B4'!$A$1:$P$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'B4'!$A$1:$P$299</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Scope!$A$1:$L$1</definedName>
     <definedName name="_Hlk150323738">#REF!</definedName>
   </definedNames>
@@ -1257,9 +1257,6 @@
     <t>POST /v2/account</t>
   </si>
   <si>
-    <t>GET /v2 /account/{account-type}/{account-ref}</t>
-  </si>
-  <si>
     <t>PATCH /v2/broker-linakge/{broker-linkage-reference}/workflow</t>
   </si>
   <si>
@@ -1481,10 +1478,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>GET /v2 /account/{account-type}/{account-ref}</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>PUT /v2/account/{account-type}/{account-ref}</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1502,6 +1495,14 @@
   </si>
   <si>
     <t>Response</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enquery Demand Deposit Account details</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -3473,9 +3474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75299A52-B02C-4760-8957-A84410B5A1E8}">
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J201" sqref="J201"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3545,7 +3546,7 @@
         <v>74</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3871,10 +3872,10 @@
         <v>135</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H8" s="65" t="s">
         <v>131</v>
@@ -4077,10 +4078,10 @@
         <v>135</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H12" s="65" t="s">
         <v>131</v>
@@ -4332,10 +4333,10 @@
         <v>135</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H17" s="65" t="s">
         <v>157</v>
@@ -4383,10 +4384,10 @@
         <v>135</v>
       </c>
       <c r="F18" s="65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H18" s="65" t="s">
         <v>157</v>
@@ -4876,7 +4877,7 @@
       </c>
       <c r="L27" s="65"/>
       <c r="M27" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N27" s="45" t="str">
         <f t="shared" si="1"/>
@@ -4927,7 +4928,7 @@
       </c>
       <c r="L28" s="65"/>
       <c r="M28" s="45" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N28" s="45" t="str">
         <f t="shared" si="1"/>
@@ -4978,7 +4979,7 @@
       </c>
       <c r="L29" s="65"/>
       <c r="M29" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N29" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5029,7 +5030,7 @@
       </c>
       <c r="L30" s="65"/>
       <c r="M30" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N30" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5080,7 +5081,7 @@
       </c>
       <c r="L31" s="65"/>
       <c r="M31" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N31" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5131,7 +5132,7 @@
       </c>
       <c r="L32" s="65"/>
       <c r="M32" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N32" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5162,10 +5163,10 @@
         <v>135</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H33" s="65" t="s">
         <v>131</v>
@@ -5182,7 +5183,7 @@
       </c>
       <c r="L33" s="65"/>
       <c r="M33" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N33" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5233,7 +5234,7 @@
       </c>
       <c r="L34" s="65"/>
       <c r="M34" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N34" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5286,7 +5287,7 @@
         <v>161</v>
       </c>
       <c r="M35" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N35" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5337,7 +5338,7 @@
       </c>
       <c r="L36" s="65"/>
       <c r="M36" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N36" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5368,10 +5369,10 @@
         <v>135</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H37" s="65" t="s">
         <v>131</v>
@@ -5388,7 +5389,7 @@
       </c>
       <c r="L37" s="65"/>
       <c r="M37" s="45" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="N37" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5439,7 +5440,7 @@
       </c>
       <c r="L38" s="65"/>
       <c r="M38" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N38" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5490,7 +5491,7 @@
       </c>
       <c r="L39" s="65"/>
       <c r="M39" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N39" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5541,7 +5542,7 @@
       </c>
       <c r="L40" s="65"/>
       <c r="M40" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N40" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5592,7 +5593,7 @@
       </c>
       <c r="L41" s="65"/>
       <c r="M41" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N41" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5623,10 +5624,10 @@
         <v>135</v>
       </c>
       <c r="F42" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H42" s="65" t="s">
         <v>157</v>
@@ -5643,7 +5644,7 @@
       </c>
       <c r="L42" s="65"/>
       <c r="M42" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N42" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5674,10 +5675,10 @@
         <v>135</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G43" s="65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H43" s="65" t="s">
         <v>157</v>
@@ -5694,7 +5695,7 @@
       </c>
       <c r="L43" s="65"/>
       <c r="M43" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N43" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5747,7 +5748,7 @@
         <v>162</v>
       </c>
       <c r="M44" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N44" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5798,7 +5799,7 @@
       </c>
       <c r="L45" s="65"/>
       <c r="M45" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N45" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5851,7 +5852,7 @@
         <v>163</v>
       </c>
       <c r="M46" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N46" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5904,7 +5905,7 @@
         <v>164</v>
       </c>
       <c r="M47" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N47" s="45" t="str">
         <f t="shared" si="1"/>
@@ -5957,7 +5958,7 @@
         <v>165</v>
       </c>
       <c r="M48" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N48" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6010,7 +6011,7 @@
         <v>166</v>
       </c>
       <c r="M49" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N49" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6063,7 +6064,7 @@
         <v>80</v>
       </c>
       <c r="M50" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N50" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6116,7 +6117,7 @@
         <v>80</v>
       </c>
       <c r="M51" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N51" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6138,7 +6139,7 @@
         <v>75</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="D52" s="65" t="s">
         <v>135</v>
@@ -6159,7 +6160,7 @@
         <v>160</v>
       </c>
       <c r="J52" s="45" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="K52" s="44" t="str">
         <f t="shared" ref="K52:K96" si="6">CONCATENATE("twct-",LOWER(SUBSTITUTE(F52, " ", "-")))</f>
@@ -6167,15 +6168,15 @@
       </c>
       <c r="L52" s="65"/>
       <c r="M52" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N52" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="O52" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="P52" s="45" t="b">
         <v>0</v>
@@ -6189,7 +6190,7 @@
         <v>75</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="D53" s="65" t="s">
         <v>135</v>
@@ -6210,7 +6211,7 @@
         <v>160</v>
       </c>
       <c r="J53" s="45" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="K53" s="44" t="str">
         <f t="shared" si="6"/>
@@ -6218,15 +6219,15 @@
       </c>
       <c r="L53" s="65"/>
       <c r="M53" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N53" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="O53" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="P53" s="45" t="b">
         <v>0</v>
@@ -6240,7 +6241,7 @@
         <v>75</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="D54" s="65" t="s">
         <v>135</v>
@@ -6261,7 +6262,7 @@
         <v>160</v>
       </c>
       <c r="J54" s="45" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="K54" s="44" t="str">
         <f t="shared" si="6"/>
@@ -6269,15 +6270,15 @@
       </c>
       <c r="L54" s="65"/>
       <c r="M54" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N54" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="O54" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="P54" s="45" t="b">
         <v>0</v>
@@ -6291,7 +6292,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="D55" s="65" t="s">
         <v>135</v>
@@ -6312,7 +6313,7 @@
         <v>160</v>
       </c>
       <c r="J55" s="45" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="K55" s="44" t="str">
         <f t="shared" si="6"/>
@@ -6320,15 +6321,15 @@
       </c>
       <c r="L55" s="65"/>
       <c r="M55" s="45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N55" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="O55" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>Modify Demand Deposit Account details</v>
+        <v>Enquery Demand Deposit Account details</v>
       </c>
       <c r="P55" s="45" t="b">
         <v>0</v>
@@ -6371,7 +6372,7 @@
       </c>
       <c r="L56" s="65"/>
       <c r="M56" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N56" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6422,7 +6423,7 @@
       </c>
       <c r="L57" s="65"/>
       <c r="M57" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N57" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6453,10 +6454,10 @@
         <v>135</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G58" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H58" s="65" t="s">
         <v>131</v>
@@ -6473,7 +6474,7 @@
       </c>
       <c r="L58" s="65"/>
       <c r="M58" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N58" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6524,7 +6525,7 @@
       </c>
       <c r="L59" s="65"/>
       <c r="M59" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N59" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6577,7 +6578,7 @@
         <v>161</v>
       </c>
       <c r="M60" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N60" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6628,7 +6629,7 @@
       </c>
       <c r="L61" s="65"/>
       <c r="M61" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N61" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6659,10 +6660,10 @@
         <v>135</v>
       </c>
       <c r="F62" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H62" s="65" t="s">
         <v>131</v>
@@ -6679,7 +6680,7 @@
       </c>
       <c r="L62" s="65"/>
       <c r="M62" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N62" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6730,7 +6731,7 @@
       </c>
       <c r="L63" s="65"/>
       <c r="M63" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N63" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6781,7 +6782,7 @@
       </c>
       <c r="L64" s="65"/>
       <c r="M64" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N64" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6832,7 +6833,7 @@
       </c>
       <c r="L65" s="65"/>
       <c r="M65" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N65" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6883,7 +6884,7 @@
       </c>
       <c r="L66" s="65"/>
       <c r="M66" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N66" s="45" t="str">
         <f t="shared" si="1"/>
@@ -6914,10 +6915,10 @@
         <v>135</v>
       </c>
       <c r="F67" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="G67" s="65" t="s">
         <v>378</v>
-      </c>
-      <c r="G67" s="65" t="s">
-        <v>379</v>
       </c>
       <c r="H67" s="65" t="s">
         <v>157</v>
@@ -6934,7 +6935,7 @@
       </c>
       <c r="L67" s="65"/>
       <c r="M67" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N67" s="45" t="str">
         <f t="shared" ref="N67:N130" si="7">C67</f>
@@ -6965,10 +6966,10 @@
         <v>135</v>
       </c>
       <c r="F68" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="G68" s="65" t="s">
         <v>380</v>
-      </c>
-      <c r="G68" s="65" t="s">
-        <v>381</v>
       </c>
       <c r="H68" s="65" t="s">
         <v>157</v>
@@ -6985,7 +6986,7 @@
       </c>
       <c r="L68" s="65"/>
       <c r="M68" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N68" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7038,7 +7039,7 @@
         <v>162</v>
       </c>
       <c r="M69" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N69" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7089,7 +7090,7 @@
       </c>
       <c r="L70" s="65"/>
       <c r="M70" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N70" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7142,7 +7143,7 @@
         <v>163</v>
       </c>
       <c r="M71" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N71" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7195,7 +7196,7 @@
         <v>164</v>
       </c>
       <c r="M72" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N72" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7248,7 +7249,7 @@
         <v>165</v>
       </c>
       <c r="M73" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N73" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7301,7 +7302,7 @@
         <v>166</v>
       </c>
       <c r="M74" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N74" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7354,7 +7355,7 @@
         <v>80</v>
       </c>
       <c r="M75" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N75" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7407,7 +7408,7 @@
         <v>80</v>
       </c>
       <c r="M76" s="45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N76" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7458,7 +7459,7 @@
       </c>
       <c r="L77" s="65"/>
       <c r="M77" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N77" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7509,7 +7510,7 @@
       </c>
       <c r="L78" s="65"/>
       <c r="M78" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N78" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7560,7 +7561,7 @@
       </c>
       <c r="L79" s="65"/>
       <c r="M79" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N79" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7594,7 +7595,7 @@
         <v>176</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H80" s="65" t="s">
         <v>182</v>
@@ -7611,7 +7612,7 @@
       </c>
       <c r="L80" s="65"/>
       <c r="M80" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N80" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7642,10 +7643,10 @@
         <v>173</v>
       </c>
       <c r="F81" s="65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H81" s="65" t="s">
         <v>184</v>
@@ -7664,7 +7665,7 @@
         <v>186</v>
       </c>
       <c r="M81" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N81" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7689,16 +7690,16 @@
         <v>174</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E82" s="45" t="s">
         <v>173</v>
       </c>
       <c r="F82" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G82" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H82" s="65" t="s">
         <v>156</v>
@@ -7715,7 +7716,7 @@
       </c>
       <c r="L82" s="65"/>
       <c r="M82" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N82" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7746,10 +7747,10 @@
         <v>173</v>
       </c>
       <c r="F83" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G83" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H83" s="65" t="s">
         <v>156</v>
@@ -7766,7 +7767,7 @@
       </c>
       <c r="L83" s="65"/>
       <c r="M83" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N83" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7817,7 +7818,7 @@
       </c>
       <c r="L84" s="65"/>
       <c r="M84" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N84" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7848,10 +7849,10 @@
         <v>173</v>
       </c>
       <c r="F85" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="G85" s="65" t="s">
         <v>376</v>
-      </c>
-      <c r="G85" s="65" t="s">
-        <v>377</v>
       </c>
       <c r="H85" s="65" t="s">
         <v>156</v>
@@ -7868,7 +7869,7 @@
       </c>
       <c r="L85" s="65"/>
       <c r="M85" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N85" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7919,7 +7920,7 @@
       </c>
       <c r="L86" s="65"/>
       <c r="M86" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N86" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7970,7 +7971,7 @@
       </c>
       <c r="L87" s="65"/>
       <c r="M87" s="45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N87" s="45" t="str">
         <f t="shared" si="7"/>
@@ -7995,10 +7996,10 @@
         <v>188</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F88" s="65" t="s">
         <v>189</v>
@@ -8020,7 +8021,7 @@
         <v>twct-approval-letter-number</v>
       </c>
       <c r="M88" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N88" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8045,10 +8046,10 @@
         <v>188</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F89" s="65" t="s">
         <v>190</v>
@@ -8070,7 +8071,7 @@
         <v>twct-applicable-tax-rate</v>
       </c>
       <c r="M89" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N89" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8095,10 +8096,10 @@
         <v>188</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F90" s="65" t="s">
         <v>191</v>
@@ -8120,7 +8121,7 @@
         <v>twct-approved-amount</v>
       </c>
       <c r="M90" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N90" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8145,10 +8146,10 @@
         <v>188</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F91" s="65" t="s">
         <v>192</v>
@@ -8170,7 +8171,7 @@
         <v>twct-total-amount-of-cumulative-remittance</v>
       </c>
       <c r="M91" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N91" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8195,16 +8196,16 @@
         <v>188</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F92" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G92" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H92" s="65" t="s">
         <v>156</v>
@@ -8220,7 +8221,7 @@
         <v>twct-taxation-amount-in-account-currency</v>
       </c>
       <c r="M92" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N92" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8245,16 +8246,16 @@
         <v>188</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F93" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G93" s="65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H93" s="65" t="s">
         <v>156</v>
@@ -8270,7 +8271,7 @@
         <v>twct-taxation-amount-in-twd</v>
       </c>
       <c r="M93" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N93" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8295,10 +8296,10 @@
         <v>188</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F94" s="65" t="s">
         <v>193</v>
@@ -8320,7 +8321,7 @@
         <v>twct-date-of-approval</v>
       </c>
       <c r="M94" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N94" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8345,10 +8346,10 @@
         <v>188</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F95" s="65" t="s">
         <v>194</v>
@@ -8370,7 +8371,7 @@
         <v>twct-deadline-for-approval-remittance</v>
       </c>
       <c r="M95" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N95" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8395,10 +8396,10 @@
         <v>188</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" s="65" t="s">
         <v>195</v>
@@ -8420,7 +8421,7 @@
         <v>twct-date-of-last-remittance</v>
       </c>
       <c r="M96" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N96" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8445,10 +8446,10 @@
         <v>198</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F97" s="65" t="s">
         <v>189</v>
@@ -8470,7 +8471,7 @@
         <v>twct-approval-letter-number</v>
       </c>
       <c r="M97" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N97" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8495,10 +8496,10 @@
         <v>198</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F98" s="65" t="s">
         <v>190</v>
@@ -8520,7 +8521,7 @@
         <v>twct-applicable-tax-rate</v>
       </c>
       <c r="M98" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N98" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8545,10 +8546,10 @@
         <v>198</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F99" s="65" t="s">
         <v>191</v>
@@ -8570,7 +8571,7 @@
         <v>twct-approved-amount</v>
       </c>
       <c r="M99" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N99" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8595,10 +8596,10 @@
         <v>198</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F100" s="65" t="s">
         <v>192</v>
@@ -8620,7 +8621,7 @@
         <v>twct-total-amount-of-cumulative-remittance</v>
       </c>
       <c r="M100" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N100" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8645,16 +8646,16 @@
         <v>198</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F101" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G101" s="65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H101" s="65" t="s">
         <v>156</v>
@@ -8670,7 +8671,7 @@
         <v>twct-taxation-amount-in-account-currency</v>
       </c>
       <c r="M101" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N101" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8695,16 +8696,16 @@
         <v>198</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F102" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="G102" s="65" t="s">
         <v>387</v>
-      </c>
-      <c r="G102" s="65" t="s">
-        <v>388</v>
       </c>
       <c r="H102" s="65" t="s">
         <v>156</v>
@@ -8720,7 +8721,7 @@
         <v>twct-taxation-amount-in-twd</v>
       </c>
       <c r="M102" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N102" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8745,10 +8746,10 @@
         <v>198</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F103" s="65" t="s">
         <v>193</v>
@@ -8770,7 +8771,7 @@
         <v>twct-date-of-approval</v>
       </c>
       <c r="M103" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N103" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8795,10 +8796,10 @@
         <v>198</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F104" s="65" t="s">
         <v>194</v>
@@ -8820,7 +8821,7 @@
         <v>twct-deadline-for-approval-remittance</v>
       </c>
       <c r="M104" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N104" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8845,10 +8846,10 @@
         <v>198</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F105" s="65" t="s">
         <v>195</v>
@@ -8870,7 +8871,7 @@
         <v>twct-date-of-last-remittance</v>
       </c>
       <c r="M105" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N105" s="45" t="str">
         <f t="shared" si="7"/>
@@ -8895,10 +8896,10 @@
         <v>200</v>
       </c>
       <c r="D106" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E106" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" s="68" t="s">
         <v>189</v>
@@ -8920,7 +8921,7 @@
         <v>twct-approval-letter-number</v>
       </c>
       <c r="M106" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N106" s="69" t="str">
         <f t="shared" si="7"/>
@@ -8945,10 +8946,10 @@
         <v>200</v>
       </c>
       <c r="D107" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E107" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F107" s="68" t="s">
         <v>190</v>
@@ -8970,7 +8971,7 @@
         <v>twct-applicable-tax-rate</v>
       </c>
       <c r="M107" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N107" s="69" t="str">
         <f t="shared" si="7"/>
@@ -8995,10 +8996,10 @@
         <v>200</v>
       </c>
       <c r="D108" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E108" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F108" s="68" t="s">
         <v>191</v>
@@ -9020,7 +9021,7 @@
         <v>twct-approved-amount</v>
       </c>
       <c r="M108" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N108" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9045,10 +9046,10 @@
         <v>200</v>
       </c>
       <c r="D109" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E109" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F109" s="68" t="s">
         <v>192</v>
@@ -9070,7 +9071,7 @@
         <v>twct-total-amount-of-cumulative-remittance</v>
       </c>
       <c r="M109" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N109" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9095,16 +9096,16 @@
         <v>200</v>
       </c>
       <c r="D110" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E110" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F110" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G110" s="68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H110" s="68" t="s">
         <v>156</v>
@@ -9120,7 +9121,7 @@
         <v>twct-taxation-amount-in-account-currency</v>
       </c>
       <c r="M110" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N110" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9145,16 +9146,16 @@
         <v>200</v>
       </c>
       <c r="D111" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E111" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F111" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G111" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H111" s="68" t="s">
         <v>156</v>
@@ -9170,7 +9171,7 @@
         <v>twct-taxation-amount-in-twd</v>
       </c>
       <c r="M111" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N111" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9195,10 +9196,10 @@
         <v>200</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E112" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F112" s="68" t="s">
         <v>193</v>
@@ -9220,7 +9221,7 @@
         <v>twct-date-of-approval</v>
       </c>
       <c r="M112" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N112" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9245,10 +9246,10 @@
         <v>200</v>
       </c>
       <c r="D113" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E113" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F113" s="68" t="s">
         <v>194</v>
@@ -9270,7 +9271,7 @@
         <v>twct-deadline-for-approval-remittance</v>
       </c>
       <c r="M113" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N113" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9295,10 +9296,10 @@
         <v>200</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E114" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F114" s="68" t="s">
         <v>195</v>
@@ -9320,7 +9321,7 @@
         <v>twct-date-of-last-remittance</v>
       </c>
       <c r="M114" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N114" s="69" t="str">
         <f t="shared" si="7"/>
@@ -9345,16 +9346,16 @@
         <v>256</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F115" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G115" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H115" s="65" t="s">
         <v>204</v>
@@ -9373,7 +9374,7 @@
         <v>219</v>
       </c>
       <c r="M115" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N115" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9404,10 +9405,10 @@
         <v>202</v>
       </c>
       <c r="F116" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G116" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H116" s="65" t="s">
         <v>203</v>
@@ -9424,7 +9425,7 @@
       </c>
       <c r="L116" s="65"/>
       <c r="M116" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N116" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9455,10 +9456,10 @@
         <v>202</v>
       </c>
       <c r="F117" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G117" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H117" s="65" t="s">
         <v>130</v>
@@ -9475,7 +9476,7 @@
       </c>
       <c r="L117" s="65"/>
       <c r="M117" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N117" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9526,7 +9527,7 @@
       </c>
       <c r="L118" s="65"/>
       <c r="M118" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N118" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9579,7 +9580,7 @@
         <v>218</v>
       </c>
       <c r="M119" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N119" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9632,7 +9633,7 @@
         <v>218</v>
       </c>
       <c r="M120" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N120" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9685,7 +9686,7 @@
         <v>219</v>
       </c>
       <c r="M121" s="45" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N121" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9716,10 +9717,10 @@
         <v>202</v>
       </c>
       <c r="F122" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G122" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H122" s="65" t="s">
         <v>203</v>
@@ -9736,7 +9737,7 @@
       </c>
       <c r="L122" s="65"/>
       <c r="M122" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N122" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9767,10 +9768,10 @@
         <v>202</v>
       </c>
       <c r="F123" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G123" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H123" s="65" t="s">
         <v>130</v>
@@ -9787,7 +9788,7 @@
       </c>
       <c r="L123" s="65"/>
       <c r="M123" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N123" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9838,7 +9839,7 @@
       </c>
       <c r="L124" s="65"/>
       <c r="M124" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N124" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9891,7 +9892,7 @@
         <v>218</v>
       </c>
       <c r="M125" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N125" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9944,7 +9945,7 @@
         <v>218</v>
       </c>
       <c r="M126" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N126" s="45" t="str">
         <f t="shared" si="7"/>
@@ -9997,7 +9998,7 @@
         <v>219</v>
       </c>
       <c r="M127" s="45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N127" s="45" t="str">
         <f t="shared" si="7"/>
@@ -10028,10 +10029,10 @@
         <v>202</v>
       </c>
       <c r="F128" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G128" s="68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H128" s="68" t="s">
         <v>203</v>
@@ -10048,7 +10049,7 @@
       </c>
       <c r="L128" s="68"/>
       <c r="M128" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N128" s="69" t="str">
         <f t="shared" si="7"/>
@@ -10079,10 +10080,10 @@
         <v>202</v>
       </c>
       <c r="F129" s="68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G129" s="68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H129" s="68" t="s">
         <v>130</v>
@@ -10099,7 +10100,7 @@
       </c>
       <c r="L129" s="68"/>
       <c r="M129" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N129" s="69" t="str">
         <f t="shared" si="7"/>
@@ -10150,7 +10151,7 @@
       </c>
       <c r="L130" s="68"/>
       <c r="M130" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N130" s="69" t="str">
         <f t="shared" si="7"/>
@@ -10203,7 +10204,7 @@
         <v>218</v>
       </c>
       <c r="M131" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N131" s="69" t="str">
         <f t="shared" ref="N131:N194" si="12">C131</f>
@@ -10256,7 +10257,7 @@
         <v>218</v>
       </c>
       <c r="M132" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N132" s="69" t="str">
         <f t="shared" si="12"/>
@@ -10309,7 +10310,7 @@
         <v>219</v>
       </c>
       <c r="M133" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N133" s="69" t="str">
         <f t="shared" si="12"/>
@@ -10362,7 +10363,7 @@
         <v>219</v>
       </c>
       <c r="M134" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N134" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10412,7 +10413,7 @@
         <v>twct-deposit-account-number</v>
       </c>
       <c r="M135" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N135" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10443,10 +10444,10 @@
         <v>214</v>
       </c>
       <c r="F136" s="65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G136" s="65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H136" s="65" t="s">
         <v>216</v>
@@ -10462,7 +10463,7 @@
         <v>twct-deposit-account-numberwith-check-digit</v>
       </c>
       <c r="M136" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N136" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10513,7 +10514,7 @@
       </c>
       <c r="L137" s="65"/>
       <c r="M137" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N137" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10564,7 +10565,7 @@
       </c>
       <c r="L138" s="65"/>
       <c r="M138" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N138" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10615,7 +10616,7 @@
       </c>
       <c r="L139" s="65"/>
       <c r="M139" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N139" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10666,7 +10667,7 @@
       </c>
       <c r="L140" s="65"/>
       <c r="M140" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N140" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10719,7 +10720,7 @@
         <v>132</v>
       </c>
       <c r="M141" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N141" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10770,7 +10771,7 @@
       </c>
       <c r="L142" s="65"/>
       <c r="M142" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N142" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10801,10 +10802,10 @@
         <v>220</v>
       </c>
       <c r="F143" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G143" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H143" s="65" t="s">
         <v>155</v>
@@ -10821,7 +10822,7 @@
       </c>
       <c r="L143" s="65"/>
       <c r="M143" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N143" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10872,7 +10873,7 @@
       </c>
       <c r="L144" s="65"/>
       <c r="M144" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N144" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10923,7 +10924,7 @@
       </c>
       <c r="L145" s="65"/>
       <c r="M145" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N145" s="45" t="str">
         <f t="shared" si="12"/>
@@ -10974,7 +10975,7 @@
       </c>
       <c r="L146" s="65"/>
       <c r="M146" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N146" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11027,7 +11028,7 @@
         <v>234</v>
       </c>
       <c r="M147" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N147" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11078,7 +11079,7 @@
       </c>
       <c r="L148" s="65"/>
       <c r="M148" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N148" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11129,7 +11130,7 @@
       </c>
       <c r="L149" s="65"/>
       <c r="M149" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N149" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11180,7 +11181,7 @@
       </c>
       <c r="L150" s="65"/>
       <c r="M150" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N150" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11231,7 +11232,7 @@
       </c>
       <c r="L151" s="65"/>
       <c r="M151" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N151" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11282,7 +11283,7 @@
       </c>
       <c r="L152" s="65"/>
       <c r="M152" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N152" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11333,7 +11334,7 @@
       </c>
       <c r="L153" s="65"/>
       <c r="M153" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N153" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11384,7 +11385,7 @@
       </c>
       <c r="L154" s="65"/>
       <c r="M154" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N154" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11437,7 +11438,7 @@
         <v>132</v>
       </c>
       <c r="M155" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N155" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11488,7 +11489,7 @@
       </c>
       <c r="L156" s="65"/>
       <c r="M156" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N156" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11519,10 +11520,10 @@
         <v>220</v>
       </c>
       <c r="F157" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G157" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H157" s="65" t="s">
         <v>155</v>
@@ -11539,7 +11540,7 @@
       </c>
       <c r="L157" s="65"/>
       <c r="M157" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N157" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11590,7 +11591,7 @@
       </c>
       <c r="L158" s="65"/>
       <c r="M158" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N158" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11641,7 +11642,7 @@
       </c>
       <c r="L159" s="65"/>
       <c r="M159" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N159" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11692,7 +11693,7 @@
       </c>
       <c r="L160" s="65"/>
       <c r="M160" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N160" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11745,7 +11746,7 @@
         <v>234</v>
       </c>
       <c r="M161" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N161" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="L162" s="65"/>
       <c r="M162" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N162" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11847,7 +11848,7 @@
       </c>
       <c r="L163" s="65"/>
       <c r="M163" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N163" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11898,7 +11899,7 @@
       </c>
       <c r="L164" s="65"/>
       <c r="M164" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N164" s="45" t="str">
         <f t="shared" si="12"/>
@@ -11949,7 +11950,7 @@
       </c>
       <c r="L165" s="68"/>
       <c r="M165" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N165" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12000,7 +12001,7 @@
       </c>
       <c r="L166" s="68"/>
       <c r="M166" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N166" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12051,7 +12052,7 @@
       </c>
       <c r="L167" s="68"/>
       <c r="M167" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N167" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12102,7 +12103,7 @@
       </c>
       <c r="L168" s="68"/>
       <c r="M168" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N168" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12155,7 +12156,7 @@
         <v>132</v>
       </c>
       <c r="M169" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N169" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12206,7 +12207,7 @@
       </c>
       <c r="L170" s="68"/>
       <c r="M170" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N170" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12237,10 +12238,10 @@
         <v>220</v>
       </c>
       <c r="F171" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G171" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H171" s="68" t="s">
         <v>155</v>
@@ -12257,7 +12258,7 @@
       </c>
       <c r="L171" s="68"/>
       <c r="M171" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N171" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12308,7 +12309,7 @@
       </c>
       <c r="L172" s="68"/>
       <c r="M172" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N172" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12359,7 +12360,7 @@
       </c>
       <c r="L173" s="68"/>
       <c r="M173" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N173" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12410,7 +12411,7 @@
       </c>
       <c r="L174" s="68"/>
       <c r="M174" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N174" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12463,7 +12464,7 @@
         <v>234</v>
       </c>
       <c r="M175" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N175" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12514,7 +12515,7 @@
       </c>
       <c r="L176" s="68"/>
       <c r="M176" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N176" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12565,7 +12566,7 @@
       </c>
       <c r="L177" s="68"/>
       <c r="M177" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N177" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12616,7 +12617,7 @@
       </c>
       <c r="L178" s="68"/>
       <c r="M178" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N178" s="69" t="str">
         <f t="shared" si="12"/>
@@ -12647,10 +12648,10 @@
         <v>240</v>
       </c>
       <c r="F179" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G179" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H179" s="65" t="s">
         <v>183</v>
@@ -12666,7 +12667,7 @@
         <v>twct-minor-cif-number</v>
       </c>
       <c r="M179" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N179" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12697,10 +12698,10 @@
         <v>240</v>
       </c>
       <c r="F180" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G180" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H180" s="65" t="s">
         <v>241</v>
@@ -12716,7 +12717,7 @@
         <v>twct-minor-account-number</v>
       </c>
       <c r="M180" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N180" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12766,7 +12767,7 @@
         <v>twct-channel</v>
       </c>
       <c r="M181" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N181" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12816,7 +12817,7 @@
         <v>twct-legal-representative-1-cif-number</v>
       </c>
       <c r="M182" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N182" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12866,7 +12867,7 @@
         <v>twct-legal-representative-1-reply-flag</v>
       </c>
       <c r="M183" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N183" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12916,7 +12917,7 @@
         <v>twct-legal-representative-1-reply-date</v>
       </c>
       <c r="M184" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N184" s="45" t="str">
         <f t="shared" si="12"/>
@@ -12947,10 +12948,10 @@
         <v>240</v>
       </c>
       <c r="F185" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G185" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H185" s="65" t="s">
         <v>242</v>
@@ -12966,7 +12967,7 @@
         <v>twct-legal-representative-2-cif-number</v>
       </c>
       <c r="M185" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N185" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13016,7 +13017,7 @@
         <v>twct-legal-representative-2-reply-flag</v>
       </c>
       <c r="M186" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N186" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13066,7 +13067,7 @@
         <v>twct-legal-representative-2-reply-date</v>
       </c>
       <c r="M187" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N187" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13116,7 +13117,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M188" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N188" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13166,7 +13167,7 @@
         <v>twct-binding-failed-status</v>
       </c>
       <c r="M189" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N189" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13188,7 +13189,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D190" s="45" t="s">
         <v>240</v>
@@ -13197,10 +13198,10 @@
         <v>240</v>
       </c>
       <c r="F190" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G190" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H190" s="65" t="s">
         <v>183</v>
@@ -13216,7 +13217,7 @@
         <v>twct-minor-cif-number</v>
       </c>
       <c r="M190" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N190" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13238,7 +13239,7 @@
         <v>187</v>
       </c>
       <c r="C191" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D191" s="45" t="s">
         <v>240</v>
@@ -13247,10 +13248,10 @@
         <v>240</v>
       </c>
       <c r="F191" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G191" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H191" s="65" t="s">
         <v>241</v>
@@ -13266,7 +13267,7 @@
         <v>twct-minor-account-number</v>
       </c>
       <c r="M191" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N191" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13288,7 +13289,7 @@
         <v>187</v>
       </c>
       <c r="C192" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D192" s="45" t="s">
         <v>240</v>
@@ -13316,7 +13317,7 @@
         <v>twct-channel</v>
       </c>
       <c r="M192" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N192" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13338,7 +13339,7 @@
         <v>187</v>
       </c>
       <c r="C193" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D193" s="45" t="s">
         <v>240</v>
@@ -13366,7 +13367,7 @@
         <v>twct-legal-representative-1-cif-number</v>
       </c>
       <c r="M193" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N193" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13388,7 +13389,7 @@
         <v>187</v>
       </c>
       <c r="C194" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D194" s="45" t="s">
         <v>240</v>
@@ -13416,7 +13417,7 @@
         <v>twct-legal-representative-1-reply-flag</v>
       </c>
       <c r="M194" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N194" s="45" t="str">
         <f t="shared" si="12"/>
@@ -13438,7 +13439,7 @@
         <v>187</v>
       </c>
       <c r="C195" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D195" s="45" t="s">
         <v>240</v>
@@ -13466,7 +13467,7 @@
         <v>twct-legal-representative-1-reply-date</v>
       </c>
       <c r="M195" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N195" s="45" t="str">
         <f t="shared" ref="N195:N258" si="15">C195</f>
@@ -13488,7 +13489,7 @@
         <v>187</v>
       </c>
       <c r="C196" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D196" s="45" t="s">
         <v>240</v>
@@ -13497,10 +13498,10 @@
         <v>240</v>
       </c>
       <c r="F196" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G196" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H196" s="65" t="s">
         <v>242</v>
@@ -13516,7 +13517,7 @@
         <v>twct-legal-representative-2-cif-number</v>
       </c>
       <c r="M196" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N196" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13538,7 +13539,7 @@
         <v>187</v>
       </c>
       <c r="C197" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D197" s="45" t="s">
         <v>240</v>
@@ -13566,7 +13567,7 @@
         <v>twct-legal-representative-2-reply-flag</v>
       </c>
       <c r="M197" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N197" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13588,7 +13589,7 @@
         <v>187</v>
       </c>
       <c r="C198" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D198" s="45" t="s">
         <v>240</v>
@@ -13616,7 +13617,7 @@
         <v>twct-legal-representative-2-reply-date</v>
       </c>
       <c r="M198" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N198" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13638,7 +13639,7 @@
         <v>187</v>
       </c>
       <c r="C199" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D199" s="45" t="s">
         <v>240</v>
@@ -13666,7 +13667,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M199" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N199" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13688,7 +13689,7 @@
         <v>187</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D200" s="45" t="s">
         <v>240</v>
@@ -13716,7 +13717,7 @@
         <v>twct-binding-failed-status</v>
       </c>
       <c r="M200" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N200" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13738,7 +13739,7 @@
         <v>187</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D201" s="45" t="s">
         <v>240</v>
@@ -13747,10 +13748,10 @@
         <v>240</v>
       </c>
       <c r="F201" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G201" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H201" s="65" t="s">
         <v>183</v>
@@ -13759,14 +13760,14 @@
         <v>128</v>
       </c>
       <c r="J201" s="71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K201" s="44" t="str">
         <f t="shared" si="14"/>
         <v>twct-minor-cif-number</v>
       </c>
       <c r="M201" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N201" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13788,7 +13789,7 @@
         <v>187</v>
       </c>
       <c r="C202" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D202" s="45" t="s">
         <v>240</v>
@@ -13797,10 +13798,10 @@
         <v>240</v>
       </c>
       <c r="F202" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G202" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H202" s="65" t="s">
         <v>241</v>
@@ -13816,7 +13817,7 @@
         <v>twct-minor-account-number</v>
       </c>
       <c r="M202" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N202" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13838,7 +13839,7 @@
         <v>187</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D203" s="45" t="s">
         <v>240</v>
@@ -13866,7 +13867,7 @@
         <v>twct-channel</v>
       </c>
       <c r="M203" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N203" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13888,7 +13889,7 @@
         <v>187</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D204" s="45" t="s">
         <v>240</v>
@@ -13916,7 +13917,7 @@
         <v>twct-legal-representative-1-cif-number</v>
       </c>
       <c r="M204" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N204" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13938,7 +13939,7 @@
         <v>187</v>
       </c>
       <c r="C205" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D205" s="45" t="s">
         <v>240</v>
@@ -13966,7 +13967,7 @@
         <v>twct-legal-representative-1-reply-flag</v>
       </c>
       <c r="M205" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N205" s="45" t="str">
         <f t="shared" si="15"/>
@@ -13988,7 +13989,7 @@
         <v>187</v>
       </c>
       <c r="C206" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D206" s="45" t="s">
         <v>240</v>
@@ -14016,7 +14017,7 @@
         <v>twct-legal-representative-1-reply-date</v>
       </c>
       <c r="M206" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N206" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14038,7 +14039,7 @@
         <v>187</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D207" s="45" t="s">
         <v>240</v>
@@ -14047,10 +14048,10 @@
         <v>240</v>
       </c>
       <c r="F207" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G207" s="65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H207" s="65" t="s">
         <v>242</v>
@@ -14066,7 +14067,7 @@
         <v>twct-legal-representative-2-cif-number</v>
       </c>
       <c r="M207" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N207" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14088,7 +14089,7 @@
         <v>187</v>
       </c>
       <c r="C208" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D208" s="45" t="s">
         <v>240</v>
@@ -14116,7 +14117,7 @@
         <v>twct-legal-representative-2-reply-flag</v>
       </c>
       <c r="M208" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N208" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14138,7 +14139,7 @@
         <v>187</v>
       </c>
       <c r="C209" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D209" s="45" t="s">
         <v>240</v>
@@ -14166,7 +14167,7 @@
         <v>twct-legal-representative-2-reply-date</v>
       </c>
       <c r="M209" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N209" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14188,7 +14189,7 @@
         <v>187</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D210" s="45" t="s">
         <v>240</v>
@@ -14216,7 +14217,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M210" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N210" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14238,7 +14239,7 @@
         <v>187</v>
       </c>
       <c r="C211" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D211" s="45" t="s">
         <v>240</v>
@@ -14266,7 +14267,7 @@
         <v>twct-binding-failed-status</v>
       </c>
       <c r="M211" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N211" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14316,7 +14317,7 @@
         <v>twct-binding-application-status</v>
       </c>
       <c r="M212" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N212" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14338,7 +14339,7 @@
         <v>187</v>
       </c>
       <c r="C213" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D213" s="45" t="s">
         <v>258</v>
@@ -14366,7 +14367,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M213" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N213" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14388,7 +14389,7 @@
         <v>187</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D214" s="45" t="s">
         <v>258</v>
@@ -14416,7 +14417,7 @@
         <v>twct-request-id</v>
       </c>
       <c r="M214" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N214" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14438,7 +14439,7 @@
         <v>187</v>
       </c>
       <c r="C215" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D215" s="45" t="s">
         <v>258</v>
@@ -14466,7 +14467,7 @@
         <v>twct-global-header-code</v>
       </c>
       <c r="M215" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N215" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14488,7 +14489,7 @@
         <v>187</v>
       </c>
       <c r="C216" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D216" s="45" t="s">
         <v>258</v>
@@ -14516,7 +14517,7 @@
         <v>twct-external-system-id</v>
       </c>
       <c r="M216" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N216" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14538,7 +14539,7 @@
         <v>187</v>
       </c>
       <c r="C217" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D217" s="45" t="s">
         <v>258</v>
@@ -14547,10 +14548,10 @@
         <v>259</v>
       </c>
       <c r="F217" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G217" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H217" s="65" t="s">
         <v>270</v>
@@ -14566,7 +14567,7 @@
         <v>twct-branch-number</v>
       </c>
       <c r="M217" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N217" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14588,7 +14589,7 @@
         <v>187</v>
       </c>
       <c r="C218" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D218" s="45" t="s">
         <v>258</v>
@@ -14616,7 +14617,7 @@
         <v>twct-operation-type</v>
       </c>
       <c r="M218" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N218" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14638,7 +14639,7 @@
         <v>187</v>
       </c>
       <c r="C219" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D219" s="45" t="s">
         <v>258</v>
@@ -14666,7 +14667,7 @@
         <v>twct-user-id</v>
       </c>
       <c r="M219" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N219" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14688,7 +14689,7 @@
         <v>187</v>
       </c>
       <c r="C220" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D220" s="45" t="s">
         <v>258</v>
@@ -14716,7 +14717,7 @@
         <v>twct-user-branch-number</v>
       </c>
       <c r="M220" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N220" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14738,7 +14739,7 @@
         <v>187</v>
       </c>
       <c r="C221" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D221" s="45" t="s">
         <v>258</v>
@@ -14766,7 +14767,7 @@
         <v>twct-customer-name</v>
       </c>
       <c r="M221" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N221" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14788,7 +14789,7 @@
         <v>187</v>
       </c>
       <c r="C222" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D222" s="45" t="s">
         <v>258</v>
@@ -14816,7 +14817,7 @@
         <v>twct-global-header-code-linkage-status</v>
       </c>
       <c r="M222" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N222" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14838,7 +14839,7 @@
         <v>187</v>
       </c>
       <c r="C223" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D223" s="45" t="s">
         <v>258</v>
@@ -14866,7 +14867,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M223" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N223" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14888,7 +14889,7 @@
         <v>187</v>
       </c>
       <c r="C224" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D224" s="45" t="s">
         <v>258</v>
@@ -14916,7 +14917,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M224" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N224" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14938,7 +14939,7 @@
         <v>187</v>
       </c>
       <c r="C225" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D225" s="45" t="s">
         <v>258</v>
@@ -14966,7 +14967,7 @@
         <v>twct-request-id</v>
       </c>
       <c r="M225" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N225" s="45" t="str">
         <f t="shared" si="15"/>
@@ -14988,7 +14989,7 @@
         <v>187</v>
       </c>
       <c r="C226" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D226" s="45" t="s">
         <v>258</v>
@@ -15016,7 +15017,7 @@
         <v>twct-global-header-code</v>
       </c>
       <c r="M226" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N226" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15038,7 +15039,7 @@
         <v>187</v>
       </c>
       <c r="C227" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D227" s="45" t="s">
         <v>258</v>
@@ -15066,7 +15067,7 @@
         <v>twct-external-system-id</v>
       </c>
       <c r="M227" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N227" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15088,7 +15089,7 @@
         <v>187</v>
       </c>
       <c r="C228" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D228" s="45" t="s">
         <v>258</v>
@@ -15097,10 +15098,10 @@
         <v>259</v>
       </c>
       <c r="F228" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G228" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H228" s="65" t="s">
         <v>270</v>
@@ -15116,7 +15117,7 @@
         <v>twct-branch-number</v>
       </c>
       <c r="M228" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N228" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15138,7 +15139,7 @@
         <v>187</v>
       </c>
       <c r="C229" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D229" s="45" t="s">
         <v>258</v>
@@ -15166,7 +15167,7 @@
         <v>twct-operation-type</v>
       </c>
       <c r="M229" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N229" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15188,7 +15189,7 @@
         <v>187</v>
       </c>
       <c r="C230" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D230" s="45" t="s">
         <v>258</v>
@@ -15216,7 +15217,7 @@
         <v>twct-user-id</v>
       </c>
       <c r="M230" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N230" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15238,7 +15239,7 @@
         <v>187</v>
       </c>
       <c r="C231" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D231" s="45" t="s">
         <v>258</v>
@@ -15266,7 +15267,7 @@
         <v>twct-user-branch-number</v>
       </c>
       <c r="M231" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N231" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15288,7 +15289,7 @@
         <v>187</v>
       </c>
       <c r="C232" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D232" s="45" t="s">
         <v>258</v>
@@ -15316,7 +15317,7 @@
         <v>twct-customer-name</v>
       </c>
       <c r="M232" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N232" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15338,7 +15339,7 @@
         <v>187</v>
       </c>
       <c r="C233" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D233" s="45" t="s">
         <v>258</v>
@@ -15366,7 +15367,7 @@
         <v>twct-global-header-code-linkage-status</v>
       </c>
       <c r="M233" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N233" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15388,7 +15389,7 @@
         <v>187</v>
       </c>
       <c r="C234" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D234" s="45" t="s">
         <v>258</v>
@@ -15416,7 +15417,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M234" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N234" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15438,7 +15439,7 @@
         <v>187</v>
       </c>
       <c r="C235" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D235" s="45" t="s">
         <v>258</v>
@@ -15466,7 +15467,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M235" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N235" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15488,7 +15489,7 @@
         <v>187</v>
       </c>
       <c r="C236" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D236" s="45" t="s">
         <v>258</v>
@@ -15516,7 +15517,7 @@
         <v>twct-request-id</v>
       </c>
       <c r="M236" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N236" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15538,7 +15539,7 @@
         <v>187</v>
       </c>
       <c r="C237" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D237" s="45" t="s">
         <v>258</v>
@@ -15566,7 +15567,7 @@
         <v>twct-global-header-code</v>
       </c>
       <c r="M237" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N237" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15588,7 +15589,7 @@
         <v>187</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D238" s="45" t="s">
         <v>258</v>
@@ -15616,7 +15617,7 @@
         <v>twct-external-system-id</v>
       </c>
       <c r="M238" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N238" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15638,7 +15639,7 @@
         <v>187</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D239" s="45" t="s">
         <v>258</v>
@@ -15647,10 +15648,10 @@
         <v>259</v>
       </c>
       <c r="F239" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G239" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H239" s="65" t="s">
         <v>270</v>
@@ -15666,7 +15667,7 @@
         <v>twct-branch-number</v>
       </c>
       <c r="M239" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N239" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15688,7 +15689,7 @@
         <v>187</v>
       </c>
       <c r="C240" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D240" s="45" t="s">
         <v>258</v>
@@ -15716,7 +15717,7 @@
         <v>twct-operation-type</v>
       </c>
       <c r="M240" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N240" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15738,7 +15739,7 @@
         <v>187</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D241" s="45" t="s">
         <v>258</v>
@@ -15766,7 +15767,7 @@
         <v>twct-user-id</v>
       </c>
       <c r="M241" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N241" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15788,7 +15789,7 @@
         <v>187</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D242" s="45" t="s">
         <v>258</v>
@@ -15816,7 +15817,7 @@
         <v>twct-user-branch-number</v>
       </c>
       <c r="M242" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N242" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15838,7 +15839,7 @@
         <v>187</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D243" s="45" t="s">
         <v>258</v>
@@ -15866,7 +15867,7 @@
         <v>twct-customer-name</v>
       </c>
       <c r="M243" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N243" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15888,7 +15889,7 @@
         <v>187</v>
       </c>
       <c r="C244" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D244" s="45" t="s">
         <v>258</v>
@@ -15916,7 +15917,7 @@
         <v>twct-global-header-code-linkage-status-</v>
       </c>
       <c r="M244" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N244" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15938,7 +15939,7 @@
         <v>187</v>
       </c>
       <c r="C245" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D245" s="45" t="s">
         <v>258</v>
@@ -15966,7 +15967,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M245" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N245" s="45" t="str">
         <f t="shared" si="15"/>
@@ -15988,7 +15989,7 @@
         <v>187</v>
       </c>
       <c r="C246" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D246" s="45" t="s">
         <v>258</v>
@@ -16016,7 +16017,7 @@
         <v>twct-global-header-code-linkage-status</v>
       </c>
       <c r="M246" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N246" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16038,7 +16039,7 @@
         <v>187</v>
       </c>
       <c r="C247" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D247" s="45" t="s">
         <v>258</v>
@@ -16066,7 +16067,7 @@
         <v>twct-reject-reason</v>
       </c>
       <c r="M247" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N247" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16119,7 +16120,7 @@
         <v>218</v>
       </c>
       <c r="M248" s="45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N248" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16172,7 +16173,7 @@
         <v>218</v>
       </c>
       <c r="M249" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N249" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16225,7 +16226,7 @@
         <v>218</v>
       </c>
       <c r="M250" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N250" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16276,7 +16277,7 @@
       </c>
       <c r="L251" s="65"/>
       <c r="M251" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N251" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16327,7 +16328,7 @@
       </c>
       <c r="L252" s="65"/>
       <c r="M252" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N252" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16380,7 +16381,7 @@
         <v>302</v>
       </c>
       <c r="M253" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N253" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16431,7 +16432,7 @@
       </c>
       <c r="L254" s="65"/>
       <c r="M254" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N254" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16482,7 +16483,7 @@
       </c>
       <c r="L255" s="65"/>
       <c r="M255" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N255" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16535,7 +16536,7 @@
         <v>303</v>
       </c>
       <c r="M256" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N256" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16586,7 +16587,7 @@
       </c>
       <c r="L257" s="65"/>
       <c r="M257" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N257" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16637,7 +16638,7 @@
       </c>
       <c r="L258" s="65"/>
       <c r="M258" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N258" s="45" t="str">
         <f t="shared" si="15"/>
@@ -16688,7 +16689,7 @@
       </c>
       <c r="L259" s="65"/>
       <c r="M259" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N259" s="45" t="str">
         <f t="shared" ref="N259:N299" si="19">C259</f>
@@ -16739,7 +16740,7 @@
       </c>
       <c r="L260" s="65"/>
       <c r="M260" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N260" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16792,7 +16793,7 @@
         <v>302</v>
       </c>
       <c r="M261" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N261" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16843,7 +16844,7 @@
       </c>
       <c r="L262" s="65"/>
       <c r="M262" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N262" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16894,7 +16895,7 @@
       </c>
       <c r="L263" s="65"/>
       <c r="M263" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N263" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16947,7 +16948,7 @@
         <v>303</v>
       </c>
       <c r="M264" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N264" s="45" t="str">
         <f t="shared" si="19"/>
@@ -16998,7 +16999,7 @@
       </c>
       <c r="L265" s="65"/>
       <c r="M265" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N265" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17049,7 +17050,7 @@
       </c>
       <c r="L266" s="65"/>
       <c r="M266" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N266" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17092,7 +17093,7 @@
         <v>128</v>
       </c>
       <c r="J267" s="71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K267" s="70" t="str">
         <f t="shared" si="18"/>
@@ -17100,7 +17101,7 @@
       </c>
       <c r="L267" s="68"/>
       <c r="M267" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N267" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17151,7 +17152,7 @@
       </c>
       <c r="L268" s="68"/>
       <c r="M268" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N268" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17204,7 +17205,7 @@
         <v>302</v>
       </c>
       <c r="M269" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N269" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17255,7 +17256,7 @@
       </c>
       <c r="L270" s="68"/>
       <c r="M270" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N270" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17306,7 +17307,7 @@
       </c>
       <c r="L271" s="68"/>
       <c r="M271" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N271" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17359,7 +17360,7 @@
         <v>303</v>
       </c>
       <c r="M272" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N272" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17410,7 +17411,7 @@
       </c>
       <c r="L273" s="68"/>
       <c r="M273" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N273" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17461,7 +17462,7 @@
       </c>
       <c r="L274" s="68"/>
       <c r="M274" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N274" s="69" t="str">
         <f t="shared" si="19"/>
@@ -17511,7 +17512,7 @@
         <v>twct-consent-status</v>
       </c>
       <c r="M275" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N275" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17561,7 +17562,7 @@
         <v>twct-cosent-remark</v>
       </c>
       <c r="M276" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N276" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17586,10 +17587,10 @@
         <v>309</v>
       </c>
       <c r="D277" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E277" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F277" s="65" t="s">
         <v>321</v>
@@ -17611,7 +17612,7 @@
         <v>twct-customer-number</v>
       </c>
       <c r="M277" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N277" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17636,10 +17637,10 @@
         <v>309</v>
       </c>
       <c r="D278" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E278" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F278" s="65" t="s">
         <v>178</v>
@@ -17661,7 +17662,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M278" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N278" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17686,10 +17687,10 @@
         <v>309</v>
       </c>
       <c r="D279" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E279" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F279" s="65" t="s">
         <v>311</v>
@@ -17711,7 +17712,7 @@
         <v>twct-instrument-id</v>
       </c>
       <c r="M279" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N279" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17736,10 +17737,10 @@
         <v>309</v>
       </c>
       <c r="D280" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E280" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F280" s="65" t="s">
         <v>322</v>
@@ -17761,7 +17762,7 @@
         <v>twct-ceiling-amount</v>
       </c>
       <c r="M280" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N280" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17786,16 +17787,16 @@
         <v>309</v>
       </c>
       <c r="D281" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E281" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F281" s="65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G281" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H281" s="65" t="s">
         <v>319</v>
@@ -17811,7 +17812,7 @@
         <v>twct-account-creation-and-switch-date</v>
       </c>
       <c r="M281" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N281" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17836,10 +17837,10 @@
         <v>309</v>
       </c>
       <c r="D282" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E282" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F282" s="65" t="s">
         <v>313</v>
@@ -17861,7 +17862,7 @@
         <v>twct-end-date</v>
       </c>
       <c r="M282" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N282" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17886,10 +17887,10 @@
         <v>309</v>
       </c>
       <c r="D283" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E283" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F283" s="65" t="s">
         <v>314</v>
@@ -17914,7 +17915,7 @@
         <v>320</v>
       </c>
       <c r="M283" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N283" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17936,13 +17937,13 @@
         <v>187</v>
       </c>
       <c r="C284" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D284" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E284" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F284" s="65" t="s">
         <v>321</v>
@@ -17964,7 +17965,7 @@
         <v>twct-customer-number</v>
       </c>
       <c r="M284" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N284" s="45" t="str">
         <f t="shared" si="19"/>
@@ -17986,13 +17987,13 @@
         <v>187</v>
       </c>
       <c r="C285" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D285" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E285" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F285" s="65" t="s">
         <v>178</v>
@@ -18014,7 +18015,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M285" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N285" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18036,13 +18037,13 @@
         <v>187</v>
       </c>
       <c r="C286" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D286" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E286" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F286" s="65" t="s">
         <v>311</v>
@@ -18064,7 +18065,7 @@
         <v>twct-instrument-id</v>
       </c>
       <c r="M286" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N286" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18086,13 +18087,13 @@
         <v>187</v>
       </c>
       <c r="C287" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D287" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E287" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F287" s="65" t="s">
         <v>322</v>
@@ -18114,7 +18115,7 @@
         <v>twct-ceiling-amount</v>
       </c>
       <c r="M287" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N287" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18136,19 +18137,19 @@
         <v>187</v>
       </c>
       <c r="C288" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D288" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E288" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F288" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G288" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H288" s="65" t="s">
         <v>319</v>
@@ -18165,7 +18166,7 @@
 </v>
       </c>
       <c r="M288" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N288" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18187,13 +18188,13 @@
         <v>187</v>
       </c>
       <c r="C289" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D289" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E289" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F289" s="65" t="s">
         <v>313</v>
@@ -18215,7 +18216,7 @@
         <v>twct-end-date</v>
       </c>
       <c r="M289" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N289" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18237,13 +18238,13 @@
         <v>187</v>
       </c>
       <c r="C290" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D290" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E290" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F290" s="65" t="s">
         <v>314</v>
@@ -18268,7 +18269,7 @@
         <v>320</v>
       </c>
       <c r="M290" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N290" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18293,10 +18294,10 @@
         <v>315</v>
       </c>
       <c r="D291" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E291" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F291" s="68" t="s">
         <v>321</v>
@@ -18318,7 +18319,7 @@
         <v>twct-customer-number</v>
       </c>
       <c r="M291" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N291" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18343,10 +18344,10 @@
         <v>315</v>
       </c>
       <c r="D292" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E292" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F292" s="68" t="s">
         <v>178</v>
@@ -18368,7 +18369,7 @@
         <v>twct-account-number</v>
       </c>
       <c r="M292" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N292" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18393,10 +18394,10 @@
         <v>315</v>
       </c>
       <c r="D293" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E293" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F293" s="68" t="s">
         <v>311</v>
@@ -18418,7 +18419,7 @@
         <v>twct-instrument-id</v>
       </c>
       <c r="M293" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N293" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18443,10 +18444,10 @@
         <v>315</v>
       </c>
       <c r="D294" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E294" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F294" s="68" t="s">
         <v>322</v>
@@ -18468,7 +18469,7 @@
         <v>twct-ceiling-amount</v>
       </c>
       <c r="M294" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N294" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18493,16 +18494,16 @@
         <v>315</v>
       </c>
       <c r="D295" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E295" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F295" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G295" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H295" s="68" t="s">
         <v>319</v>
@@ -18519,7 +18520,7 @@
 </v>
       </c>
       <c r="M295" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N295" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18544,10 +18545,10 @@
         <v>315</v>
       </c>
       <c r="D296" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E296" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F296" s="68" t="s">
         <v>313</v>
@@ -18569,7 +18570,7 @@
         <v>twct-end-date</v>
       </c>
       <c r="M296" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N296" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18594,10 +18595,10 @@
         <v>315</v>
       </c>
       <c r="D297" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E297" s="69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F297" s="68" t="s">
         <v>314</v>
@@ -18622,7 +18623,7 @@
         <v>320</v>
       </c>
       <c r="M297" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N297" s="69" t="str">
         <f t="shared" si="19"/>
@@ -18647,10 +18648,10 @@
         <v>316</v>
       </c>
       <c r="D298" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F298" s="45" t="s">
         <v>317</v>
@@ -18672,7 +18673,7 @@
         <v>twct-record-status</v>
       </c>
       <c r="M298" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N298" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18697,10 +18698,10 @@
         <v>316</v>
       </c>
       <c r="D299" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F299" s="45" t="s">
         <v>59</v>
@@ -18722,7 +18723,7 @@
         <v>twct-remarks</v>
       </c>
       <c r="M299" s="45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N299" s="45" t="str">
         <f t="shared" si="19"/>
@@ -18737,7 +18738,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P8" xr:uid="{75299A52-B02C-4760-8957-A84410B5A1E8}"/>
+  <autoFilter ref="A1:P299" xr:uid="{75299A52-B02C-4760-8957-A84410B5A1E8}"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
